--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4CA63F-4933-4DC3-8566-C6CFC5FD7FE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView xWindow="3165" yWindow="495" windowWidth="20880" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -202,18 +208,58 @@
   <si>
     <t>学习flask</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将falsk的基础学习完</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Jenkins构建项目帮助文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue师兄的前端框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,147 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,204 +293,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -635,251 +366,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -893,11 +382,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,65 +397,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1250,28 +695,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1285,22 +730,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1311,11 +756,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1325,9 +770,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1337,9 +782,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1349,8 +794,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1363,8 +808,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1375,8 +820,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1387,11 +832,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1401,9 +846,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1413,9 +858,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1425,139 +870,139 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1570,30 +1015,29 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1607,21 +1051,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1633,8 +1077,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1647,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1659,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1671,11 +1115,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1685,9 +1129,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1697,9 +1141,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1709,11 +1153,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1723,9 +1167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1735,9 +1179,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1752,31 +1196,30 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,22 +1233,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1816,11 +1259,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1830,9 +1273,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1842,8 +1285,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1854,8 +1297,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1868,8 +1311,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1880,8 +1323,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1892,11 +1335,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1906,9 +1349,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1918,8 +1361,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1930,153 +1373,174 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4CA63F-4933-4DC3-8566-C6CFC5FD7FE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="495" windowWidth="20880" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>日期</t>
   </si>
@@ -167,61 +161,14 @@
     <t>学习《数学之美》</t>
   </si>
   <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习待续</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将falsk的基础学习完</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -230,36 +177,74 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>学习Jenkins构建项目帮助文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习待续</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>将falsk的基础学习完</t>
   </si>
   <si>
     <t>学习vue师兄的前端框架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完待续</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +261,155 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,20 +417,204 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -366,9 +674,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -382,33 +932,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -695,19 +1289,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -716,7 +1310,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,22 +1324,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,11 +1350,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -770,9 +1364,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -782,9 +1376,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -794,8 +1388,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -808,8 +1402,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -820,8 +1414,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -832,11 +1426,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -846,9 +1440,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -858,9 +1452,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -870,139 +1464,139 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1015,21 +1609,22 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1037,7 +1632,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,21 +1646,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1077,8 +1672,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1091,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1103,7 +1698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1115,11 +1710,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1129,9 +1724,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1141,9 +1736,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1153,11 +1748,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1167,9 +1762,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1179,9 +1774,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1191,26 +1786,66 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1219,7 +1854,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,114 +1868,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1349,183 +1984,183 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1539,8 +2174,8 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC267F62-AE68-4019-9EBD-6897CE1A19F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t>日期</t>
   </si>
@@ -233,175 +239,26 @@
   <si>
     <t>学习vue师兄的前端框架</t>
   </si>
+  <si>
+    <t>学习vue框架的基本语法</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>结合师兄的axee-frontend项目学习vue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,202 +276,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -674,251 +351,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,11 +367,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,65 +382,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,19 +680,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -1310,7 +701,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,22 +715,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1350,11 +741,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1364,9 +755,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1376,9 +767,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1388,8 +779,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1402,8 +793,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +805,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1426,11 +817,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1440,9 +831,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1452,9 +843,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1464,167 +855,208 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1632,7 +1064,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1646,21 +1078,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1672,8 +1104,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1686,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1698,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1710,11 +1142,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1724,9 +1156,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1736,9 +1168,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1748,11 +1180,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1762,9 +1194,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1774,9 +1206,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1786,11 +1218,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1800,9 +1232,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1812,9 +1244,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1830,22 +1262,21 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1854,7 +1285,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1868,22 +1299,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1894,11 +1325,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1908,9 +1339,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1920,8 +1351,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1932,8 +1363,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1946,8 +1377,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1958,8 +1389,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1970,11 +1401,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1984,9 +1415,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1996,8 +1427,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2008,11 +1439,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2022,9 +1453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2034,9 +1465,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2046,121 +1477,121 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2174,8 +1605,8 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC267F62-AE68-4019-9EBD-6897CE1A19F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>日期</t>
   </si>
@@ -137,6 +131,24 @@
     <t>未完待续</t>
   </si>
   <si>
+    <t>将falsk的基础学习完</t>
+  </si>
+  <si>
+    <t>学习Jenkins构建项目帮助文档</t>
+  </si>
+  <si>
+    <t>学习vue师兄的前端框架</t>
+  </si>
+  <si>
+    <t>学习vue框架的基本语法</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>结合师兄的axee-frontend项目学习vue</t>
+  </si>
+  <si>
     <t>完成python环境配置</t>
   </si>
   <si>
@@ -167,31 +179,6 @@
     <t>学习《数学之美》</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
-    <t>学习Jenkins构建项目帮助文档</t>
-  </si>
-  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -228,32 +215,32 @@
     <t>安装flask并学习</t>
   </si>
   <si>
-    <t>学习待续</t>
-  </si>
-  <si>
     <t>学习flask</t>
   </si>
   <si>
-    <t>将falsk的基础学习完</t>
-  </si>
-  <si>
-    <t>学习vue师兄的前端框架</t>
-  </si>
-  <si>
-    <t>学习vue框架的基本语法</t>
-  </si>
-  <si>
-    <t>部分完成</t>
-  </si>
-  <si>
-    <t>结合师兄的axee-frontend项目学习vue</t>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,28 +257,352 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -351,9 +662,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -367,33 +920,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -680,28 +1277,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,22 +1312,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -741,11 +1338,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -755,9 +1352,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -767,9 +1364,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -779,8 +1376,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -793,8 +1390,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -805,8 +1402,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -817,11 +1414,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -831,9 +1428,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -843,9 +1440,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -855,179 +1452,179 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1035,36 +1632,37 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,113 +1676,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1194,35 +1792,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1232,21 +1830,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1262,30 +1860,31 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1299,114 +1898,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>43663</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1415,198 +2014,215 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>日期</t>
   </si>
@@ -229,16 +229,28 @@
   <si>
     <t>了解自然语言处理的相关名词</t>
   </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -264,9 +276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,15 +292,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,10 +321,64 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,23 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,59 +414,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -417,18 +429,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,163 +489,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +676,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -682,7 +744,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,56 +772,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,145 +780,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1871,8 +1883,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -2111,22 +2123,42 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="7">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5885A-6598-4516-805B-28653C4DDD06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -241,18 +247,27 @@
   <si>
     <t>明天继续</t>
   </si>
+  <si>
+    <t>全部开会总结上周的问题和部署接下来的工作</t>
+  </si>
+  <si>
+    <t>调用LTP的语义角色标注接口</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>继续调用接口，学习vue</t>
+  </si>
+  <si>
+    <t>调用还是失败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,352 +284,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -674,251 +365,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,11 +381,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,65 +396,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,28 +694,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,22 +729,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1350,11 +755,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1364,9 +769,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1376,9 +781,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1388,8 +793,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1402,8 +807,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +819,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1426,11 +831,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1440,9 +845,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1452,9 +857,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1464,11 +869,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1478,9 +883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1490,9 +895,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1502,8 +907,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1516,8 +921,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1528,8 +933,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1540,141 +945,161 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,21 +1113,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1714,8 +1139,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1728,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1740,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1752,11 +1177,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1766,9 +1191,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1778,9 +1203,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1790,11 +1215,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1804,9 +1229,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1816,9 +1241,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1828,11 +1253,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1842,9 +1267,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1854,9 +1279,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1872,31 +1297,30 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,22 +1334,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1936,11 +1360,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1950,9 +1374,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1962,8 +1386,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1974,8 +1398,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1988,8 +1412,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +1424,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2012,11 +1436,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2026,9 +1450,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2038,8 +1462,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2050,11 +1474,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2064,9 +1488,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2076,8 +1500,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2088,11 +1512,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2102,9 +1526,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2114,16 +1538,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2136,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -2148,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2160,85 +1584,85 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2246,15 +1670,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5885A-6598-4516-805B-28653C4DDD06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>日期</t>
   </si>
@@ -155,6 +149,21 @@
     <t>结合师兄的axee-frontend项目学习vue</t>
   </si>
   <si>
+    <t>全部开会总结上周的问题和部署接下来的工作</t>
+  </si>
+  <si>
+    <t>调用LTP的语义角色标注接口</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>继续调用接口，学习vue</t>
+  </si>
+  <si>
+    <t>调用还是失败</t>
+  </si>
+  <si>
     <t>完成python环境配置</t>
   </si>
   <si>
@@ -185,12 +194,33 @@
     <t>学习《数学之美》</t>
   </si>
   <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
     <t>安装并初步学习jieba</t>
   </si>
   <si>
@@ -212,9 +242,6 @@
     <t>查看文档</t>
   </si>
   <si>
-    <t>待续</t>
-  </si>
-  <si>
     <t>学习python基础</t>
   </si>
   <si>
@@ -230,9 +257,6 @@
     <t>学习flask-WTF实现表单</t>
   </si>
   <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
     <t>了解自然语言处理的相关名词</t>
   </si>
   <si>
@@ -243,31 +267,19 @@
   </si>
   <si>
     <t>学习vue</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>全部开会总结上周的问题和部署接下来的工作</t>
-  </si>
-  <si>
-    <t>调用LTP的语义角色标注接口</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>继续调用接口，学习vue</t>
-  </si>
-  <si>
-    <t>调用还是失败</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,28 +296,352 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -365,9 +701,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -381,33 +959,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,19 +1316,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -715,7 +1337,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,22 +1351,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,11 +1377,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -769,9 +1391,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -781,9 +1403,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -793,8 +1415,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -807,8 +1429,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -819,8 +1441,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -831,11 +1453,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -845,9 +1467,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -857,9 +1479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -869,11 +1491,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -883,9 +1505,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -895,9 +1517,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -907,8 +1529,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -921,8 +1543,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -933,8 +1555,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -945,123 +1567,123 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1069,29 +1691,30 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1099,7 +1722,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,113 +1736,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1229,35 +1852,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1267,9 +1890,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1279,9 +1902,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1291,27 +1914,102 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1320,7 +2018,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1334,114 +2032,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>43663</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1450,219 +2148,219 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1670,15 +2368,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>日期</t>
   </si>
@@ -218,6 +218,15 @@
     <t>明天继续</t>
   </si>
   <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -274,9 +283,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -297,13 +306,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,8 +319,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,6 +358,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -354,93 +450,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -456,6 +465,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,19 +543,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,13 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,121 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,15 +714,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -735,6 +735,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -742,21 +757,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,16 +786,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +816,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +828,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,10 +1717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -1986,13 +1995,52 @@
         <v>53</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2052,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -2066,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2078,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -2090,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -2104,7 +2152,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -2116,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
@@ -2128,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -2154,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2166,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -2180,7 +2228,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -2192,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
@@ -2204,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2230,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -2252,7 +2300,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2264,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2276,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>53</v>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F45B1D-8255-4686-89EB-3F59A88B9A0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
   <si>
     <t>日期</t>
   </si>
@@ -277,18 +283,15 @@
   <si>
     <t>学习vue</t>
   </si>
+  <si>
+    <t>学习vue，编写界面</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,352 +308,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -710,251 +389,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,11 +405,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,65 +420,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1325,19 +718,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A53"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -1346,7 +739,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1360,22 +753,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1386,11 +779,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1400,9 +793,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1412,9 +805,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1424,8 +817,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1438,8 +831,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1450,8 +843,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1462,11 +855,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1476,9 +869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1488,9 +881,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1500,11 +893,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1514,9 +907,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1526,9 +919,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1538,8 +931,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1552,8 +945,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1564,8 +957,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1576,8 +969,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1590,8 +983,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1602,8 +995,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1614,116 +1007,136 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1731,7 +1144,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1745,21 +1158,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1771,8 +1184,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1785,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1797,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1809,11 +1222,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1823,9 +1236,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1835,9 +1248,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1847,11 +1260,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1861,9 +1274,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1873,9 +1286,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1885,11 +1298,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1899,9 +1312,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1911,9 +1324,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1923,11 +1336,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1937,9 +1350,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1949,19 +1362,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>43668</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1971,9 +1384,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1983,8 +1396,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1995,11 +1408,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2009,9 +1422,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2021,8 +1434,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,29 +1448,28 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -2066,7 +1478,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2080,22 +1492,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2106,11 +1518,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2120,9 +1532,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2132,8 +1544,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2144,8 +1556,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2158,8 +1570,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2170,8 +1582,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2182,11 +1594,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2196,9 +1608,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2208,8 +1620,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2220,11 +1632,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2234,9 +1646,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2246,8 +1658,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2258,11 +1670,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2272,9 +1684,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2284,16 +1696,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2306,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -2318,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2330,85 +1742,85 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2416,15 +1828,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F45B1D-8255-4686-89EB-3F59A88B9A0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -170,6 +164,9 @@
     <t>调用还是失败</t>
   </si>
   <si>
+    <t>学习vue，编写界面</t>
+  </si>
+  <si>
     <t>完成python环境配置</t>
   </si>
   <si>
@@ -284,14 +281,29 @@
     <t>学习vue</t>
   </si>
   <si>
-    <t>学习vue，编写界面</t>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,28 +320,352 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -389,9 +725,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -405,33 +983,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -718,28 +1340,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,22 +1375,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,11 +1401,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -793,9 +1415,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -805,9 +1427,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -817,8 +1439,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -831,8 +1453,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -843,8 +1465,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -855,11 +1477,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -869,9 +1491,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -881,9 +1503,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -893,11 +1515,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -907,9 +1529,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -919,9 +1541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -931,8 +1553,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -945,8 +1567,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -957,8 +1579,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -969,8 +1591,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -983,8 +1605,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -995,8 +1617,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1007,22 +1629,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1033,8 +1655,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,67 +1667,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1113,38 +1735,39 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,113 +1781,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1274,35 +1897,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1312,9 +1935,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1324,9 +1947,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1336,149 +1959,150 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1492,114 +2116,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1608,235 +2232,256 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>日期</t>
   </si>
@@ -292,15 +292,24 @@
   <si>
     <t>未完成，明继续</t>
   </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -321,38 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,9 +344,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +384,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,8 +411,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,52 +466,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,36 +489,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,145 +627,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +735,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,17 +783,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,18 +824,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,7 +1764,7 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2089,8 +2098,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -2405,22 +2414,42 @@
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
@@ -2471,7 +2500,7 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -2479,6 +2508,7 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" activeTab="2"/>
+    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>日期</t>
   </si>
@@ -230,6 +230,15 @@
     <t>编写小组前端网页</t>
   </si>
   <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -291,12 +300,6 @@
   </si>
   <si>
     <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
   </si>
   <si>
     <t>查看element</t>
@@ -307,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -330,7 +333,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +369,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -368,6 +376,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -376,36 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +409,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -436,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +438,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -466,10 +469,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +738,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -746,39 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,6 +797,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,13 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -1361,11 +1364,11 @@
       <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1760,20 +1763,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2078,14 +2081,53 @@
         <v>54</v>
       </c>
     </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2094,20 +2136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2145,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -2159,7 +2201,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2171,10 +2213,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -2183,10 +2225,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -2197,7 +2239,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -2209,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -2221,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -2247,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -2259,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2273,7 +2315,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2285,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>50</v>
@@ -2297,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2323,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -2345,7 +2387,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2357,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2369,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
@@ -2383,10 +2425,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
@@ -2395,10 +2437,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
@@ -2407,10 +2449,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
@@ -2421,7 +2463,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -2433,10 +2475,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
@@ -2445,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>54</v>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE532026-912B-40B0-810D-14E438E776D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="91">
   <si>
     <t>日期</t>
   </si>
@@ -304,18 +310,58 @@
   <si>
     <t>查看element</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小组一块讨论调用接口问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化前端界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面收尾，准备开始实现前后端交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,145 +378,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,204 +395,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -737,251 +468,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,11 +484,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,65 +499,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1352,28 +797,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1387,22 +832,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1413,11 +858,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1427,9 +872,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1439,9 +884,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1451,8 +896,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1465,8 +910,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1477,8 +922,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1489,11 +934,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1503,9 +948,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1515,9 +960,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1527,11 +972,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1541,9 +986,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1553,9 +998,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1565,8 +1010,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1579,8 +1024,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1591,8 +1036,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1603,8 +1048,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1617,8 +1062,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1074,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1641,8 +1086,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1655,8 +1100,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1667,8 +1112,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1679,67 +1124,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1747,39 +1192,38 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A28" sqref="A28:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1793,21 +1237,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1819,8 +1263,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1833,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1845,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1857,11 +1301,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1871,9 +1315,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1883,9 +1327,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1895,11 +1339,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1909,9 +1353,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1921,9 +1365,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1933,11 +1377,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1947,9 +1391,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1959,9 +1403,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1971,11 +1415,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1985,9 +1429,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1997,19 +1441,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>43668</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2019,9 +1463,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2031,8 +1475,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2043,11 +1487,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2057,9 +1501,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2069,8 +1513,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2081,11 +1525,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2095,9 +1539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2107,8 +1551,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2119,41 +1563,79 @@
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2167,22 +1649,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2193,11 +1675,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2207,9 +1689,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2219,8 +1701,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2231,8 +1713,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2245,8 +1727,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2257,8 +1739,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2269,11 +1751,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2283,9 +1765,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2295,8 +1777,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2307,11 +1789,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2321,9 +1803,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2333,8 +1815,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2345,11 +1827,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2359,9 +1841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2371,16 +1853,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2393,7 +1875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -2405,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2417,11 +1899,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2431,9 +1913,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2443,8 +1925,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2455,11 +1937,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2469,9 +1951,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2481,8 +1963,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2493,49 +1975,49 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2543,17 +2025,17 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE532026-912B-40B0-810D-14E438E776D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CCFFD-8692-4C3E-A0C8-C0A0019A1871}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="840" windowWidth="20880" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1185" windowWidth="20880" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
   <si>
     <t>日期</t>
   </si>
@@ -354,6 +354,29 @@
   </si>
   <si>
     <t>前端界面收尾，准备开始实现前后端交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2:10-17:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端的数据能传到后端，但是后端传不到前端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前后端交互</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +520,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,7 +865,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -847,7 +879,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -859,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -873,7 +905,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -885,7 +917,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -897,7 +929,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -911,7 +943,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -923,7 +955,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -935,7 +967,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -949,7 +981,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -961,7 +993,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1005,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -987,7 +1019,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1031,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1043,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1025,7 +1057,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1069,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1081,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1063,7 +1095,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1107,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1119,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1101,7 +1133,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1145,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1209,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1302,7 +1334,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1316,7 +1348,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1360,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1372,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1354,7 +1386,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +1398,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1410,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1392,7 +1424,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1436,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1448,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1430,7 +1462,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1474,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1482,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1464,7 +1496,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1508,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1520,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1502,7 +1534,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1546,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1558,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1540,7 +1572,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1584,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1596,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="A28" s="8">
         <v>43670</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1578,7 +1610,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
@@ -1590,7 +1622,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
@@ -1601,8 +1633,47 @@
         <v>88</v>
       </c>
     </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>43671</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
@@ -1650,7 +1721,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1664,7 +1735,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1747,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1690,7 +1761,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1773,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1785,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1728,7 +1799,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1811,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1823,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1766,7 +1837,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1849,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1861,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1804,7 +1875,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1887,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1899,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1842,7 +1913,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1925,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1971,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1914,7 +1985,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1997,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +2009,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1952,7 +2023,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +2035,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CCFFD-8692-4C3E-A0C8-C0A0019A1871}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390A863D-34FE-4C67-923C-CF085E2F9C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1185" windowWidth="20880" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="3345" windowWidth="20880" windowHeight="12255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="102">
   <si>
     <t>日期</t>
   </si>
@@ -377,6 +377,26 @@
   </si>
   <si>
     <t>实现前后端交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端可以互相传递数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理前端接收到的数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1671,8 +1691,86 @@
         <v>95</v>
       </c>
     </row>
+    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>43672</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>43673</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t>日期</t>
   </si>
@@ -301,6 +301,40 @@
   <si>
     <t>查看element</t>
   </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +346,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +363,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +458,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,8 +493,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,91 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +522,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,13 +531,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,91 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,80 +721,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -736,6 +784,32 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -746,24 +820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,15 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -803,6 +850,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +900,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,137 +926,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1079,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2096,10 +2188,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -2452,55 +2544,118 @@
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -2509,6 +2664,9 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7A11B-3F25-48AA-8077-119F58F94FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" activeTab="2"/>
+    <workbookView xWindow="1350" yWindow="3345" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
   <si>
     <t>日期</t>
   </si>
@@ -335,18 +341,98 @@
   <si>
     <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小组一块讨论调用接口问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化前端界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面收尾，准备开始实现前后端交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前后端交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端的数据能传到后端，但是后端传不到前端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨域解决，数据接收存在问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端可以互相传递数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理前端接收到的数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,146 +458,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,10 +474,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,194 +492,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -808,255 +579,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,19 +595,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,61 +635,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1441,28 +932,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1476,22 +967,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1502,11 +993,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1516,9 +1007,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1528,9 +1019,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1540,8 +1031,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1554,8 +1045,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1566,8 +1057,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1578,11 +1069,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1592,9 +1083,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1604,9 +1095,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1616,11 +1107,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1630,9 +1121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1642,9 +1133,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1654,8 +1145,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1668,8 +1159,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1680,8 +1171,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1692,8 +1183,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1706,8 +1197,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1718,8 +1209,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1730,8 +1221,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1744,8 +1235,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1756,8 +1247,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1768,107 +1259,484 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1882,21 +1750,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1908,8 +1776,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1922,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1934,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1946,11 +1814,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1960,9 +1828,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1972,9 +1840,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1984,11 +1852,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1998,9 +1866,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2010,9 +1878,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2022,11 +1890,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2036,9 +1904,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2048,9 +1916,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2060,11 +1928,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2074,9 +1942,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2086,19 +1954,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2108,9 +1976,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2120,8 +1988,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2132,11 +2000,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2146,9 +2014,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2158,8 +2026,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2172,38 +2040,37 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2217,22 +2084,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2243,11 +2110,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2257,9 +2124,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2269,8 +2136,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2281,8 +2148,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2295,8 +2162,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2307,8 +2174,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2319,11 +2186,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2333,9 +2200,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2345,8 +2212,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2357,11 +2224,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2371,9 +2238,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2383,8 +2250,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2395,11 +2262,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2409,9 +2276,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2421,16 +2288,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2443,7 +2310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -2455,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2467,11 +2334,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2481,9 +2348,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2493,8 +2360,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2505,11 +2372,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2519,9 +2386,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2531,8 +2398,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2543,11 +2410,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2557,9 +2424,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2569,8 +2436,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2581,45 +2448,45 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2629,27 +2496,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2668,8 +2535,8 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7A11B-3F25-48AA-8077-119F58F94FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="3345" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>日期</t>
   </si>
@@ -173,188 +167,18 @@
     <t>学习vue，编写界面</t>
   </si>
   <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
-  </si>
-  <si>
-    <t>深入学习语义角色标注：</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及一些包的介绍</t>
-  </si>
-  <si>
-    <t>安装并配置Anaconda</t>
-  </si>
-  <si>
-    <t>学习《数学之美》</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
-    <t>学习文档;了解Numpy</t>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
-  </si>
-  <si>
-    <t>配置vue运行环境</t>
-  </si>
-  <si>
-    <t>学习vue基础知识</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>深入学习vue</t>
-  </si>
-  <si>
-    <t>在电脑上安装mac操作系统</t>
-  </si>
-  <si>
-    <t>编写小组前端网页</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>整理笔记，学习flask</t>
-  </si>
-  <si>
-    <t>学习flask-WTF实现表单</t>
-  </si>
-  <si>
-    <t>了解自然语言处理的相关名词</t>
-  </si>
-  <si>
-    <t>开会，看文档</t>
-  </si>
-  <si>
-    <t>看文档，配置node</t>
-  </si>
-  <si>
-    <t>学习vue</t>
-  </si>
-  <si>
-    <t>没完成</t>
-  </si>
-  <si>
-    <t>有点难</t>
-  </si>
-  <si>
-    <t>配置ltp</t>
-  </si>
-  <si>
-    <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
-  </si>
-  <si>
-    <t>查看element</t>
-  </si>
-  <si>
-    <t>查看文档和element</t>
-  </si>
-  <si>
-    <t>又看了点falsk和vue</t>
-  </si>
-  <si>
-    <t>学习文档;</t>
-  </si>
-  <si>
-    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
-  </si>
-  <si>
-    <t>寻找解决前后端交互的方法</t>
-  </si>
-  <si>
-    <t>没解决</t>
-  </si>
-  <si>
-    <t>总结：学习新东西，不能从头到尾全
-部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
-  </si>
-  <si>
-    <t>把调节接口的前端进行修改</t>
-  </si>
-  <si>
-    <t>学习小组完成服务的代码</t>
-  </si>
-  <si>
-    <t>能看懂的更多了，还需要查阅</t>
-  </si>
-  <si>
-    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>和小组一块讨论调用接口问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -363,76 +187,226 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优化前端界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前端界面收尾，准备开始实现前后端交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实现前后端交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前后端数据交互和跨域问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前端的数据能传到后端，但是后端传不到前端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跨域解决，数据接收存在问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前后端可以互相传递数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理前端接收到的数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>整合vue和接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>看清华大学自然语言研究报告，普及知识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小组会议，安排下一周工作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +431,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,22 +582,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,12 +599,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -579,13 +876,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,9 +1134,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,21 +1155,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,17 +1168,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -932,28 +1509,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,22 +1544,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -993,11 +1570,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1007,9 +1584,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1019,9 +1596,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1031,8 +1608,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1045,8 +1622,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1057,8 +1634,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1069,11 +1646,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1083,9 +1660,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1095,9 +1672,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1107,11 +1684,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1121,9 +1698,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1133,9 +1710,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1145,8 +1722,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1159,8 +1736,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1748,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,8 +1760,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1197,8 +1774,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1209,8 +1786,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1221,8 +1798,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1235,8 +1812,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1247,8 +1824,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1259,441 +1836,441 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>93</v>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>93</v>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>93</v>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>93</v>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="42" customHeight="1" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="42" customHeight="1" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="42" customHeight="1" spans="1:4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="42" customHeight="1" spans="1:4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="42" customHeight="1" spans="1:4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="42" customHeight="1" spans="1:4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="42" customHeight="1" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="42" customHeight="1" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="42" customHeight="1" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="42" customHeight="1" spans="1:4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="42" customHeight="1" spans="1:4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="42" customHeight="1" spans="1:4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="42" customHeight="1" spans="1:4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="42" customHeight="1" spans="1:4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="42" customHeight="1" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="42" customHeight="1" spans="1:4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="42" customHeight="1" spans="1:4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="42" customHeight="1" spans="1:4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="42" customHeight="1" spans="1:4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="42" customHeight="1" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="42" customHeight="1" spans="1:4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="42" customHeight="1" spans="1:4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="42" customHeight="1" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="42" customHeight="1" spans="1:4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="42" customHeight="1" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="42" customHeight="1" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="42" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="42" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="42" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="42" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="42" customHeight="1" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="42" customHeight="1" spans="1:4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="42" customHeight="1" spans="1:4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="42" customHeight="1" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="42" customHeight="1" spans="1:4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="42" customHeight="1" spans="1:4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="42" customHeight="1" spans="1:4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="42" customHeight="1" spans="1:4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="42" customHeight="1" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="42" customHeight="1" spans="1:4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="42" customHeight="1" spans="1:4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="42" customHeight="1" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="42" customHeight="1" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="42" customHeight="1" spans="1:4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="42" customHeight="1" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="42" customHeight="1" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1701,42 +2278,43 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1750,113 +2328,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1866,35 +2444,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1904,9 +2482,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1916,9 +2494,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1928,149 +2506,150 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,114 +2663,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2200,323 +2779,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="C33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="15"/>
+      <c r="C36" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2535,8 +3114,8 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7A11B-3F25-48AA-8077-119F58F94FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56122B-7E55-4735-8DA0-A30D59109B52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="3345" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="2655" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -425,6 +425,26 @@
   </si>
   <si>
     <t>小组会议，安排下一周工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周例会，明确本周任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解CRF的基本原理和安装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试用CRF进行分词标注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，待续</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +630,10 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,7 +961,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A37" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,7 +1002,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1028,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1040,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1066,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1078,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1104,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1116,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1142,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1154,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1180,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1192,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1218,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1230,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1256,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1268,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1294,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
@@ -1286,7 +1306,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
@@ -1312,7 +1332,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>96</v>
       </c>
@@ -1324,7 +1344,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>99</v>
       </c>
@@ -1350,7 +1370,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
@@ -1362,7 +1382,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -1388,7 +1408,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
@@ -1400,7 +1420,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>99</v>
       </c>
@@ -1412,22 +1432,42 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="7">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
@@ -1700,7 +1740,13 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A16:A18"/>
@@ -1708,11 +1754,6 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,7 +1870,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1882,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1908,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1879,7 +1920,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1946,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1958,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1984,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1996,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +2018,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2030,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +2056,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2068,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2140,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2166,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2178,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2204,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2216,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2242,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2254,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2280,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2292,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2318,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2330,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2390,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +2402,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2428,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2399,7 +2440,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +2466,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2478,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2502,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2514,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2538,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2550,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56122B-7E55-4735-8DA0-A30D59109B52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB32E2-4E60-43BF-9882-30454A09E7A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="2655" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
   <si>
     <t>日期</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>未完成，待续</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用CRF完成中文分词</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>真难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习用crf进行标注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -960,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1470,22 +1494,42 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="7">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
@@ -1740,7 +1784,8 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB32E2-4E60-43BF-9882-30454A09E7A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2655" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15720" windowHeight="8327" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="123">
   <si>
     <t>日期</t>
   </si>
@@ -173,188 +167,18 @@
     <t>学习vue，编写界面</t>
   </si>
   <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
-  </si>
-  <si>
-    <t>深入学习语义角色标注：</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及一些包的介绍</t>
-  </si>
-  <si>
-    <t>安装并配置Anaconda</t>
-  </si>
-  <si>
-    <t>学习《数学之美》</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
-    <t>学习文档;了解Numpy</t>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
-  </si>
-  <si>
-    <t>配置vue运行环境</t>
-  </si>
-  <si>
-    <t>学习vue基础知识</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>深入学习vue</t>
-  </si>
-  <si>
-    <t>在电脑上安装mac操作系统</t>
-  </si>
-  <si>
-    <t>编写小组前端网页</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>整理笔记，学习flask</t>
-  </si>
-  <si>
-    <t>学习flask-WTF实现表单</t>
-  </si>
-  <si>
-    <t>了解自然语言处理的相关名词</t>
-  </si>
-  <si>
-    <t>开会，看文档</t>
-  </si>
-  <si>
-    <t>看文档，配置node</t>
-  </si>
-  <si>
-    <t>学习vue</t>
-  </si>
-  <si>
-    <t>没完成</t>
-  </si>
-  <si>
-    <t>有点难</t>
-  </si>
-  <si>
-    <t>配置ltp</t>
-  </si>
-  <si>
-    <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
-  </si>
-  <si>
-    <t>查看element</t>
-  </si>
-  <si>
-    <t>查看文档和element</t>
-  </si>
-  <si>
-    <t>又看了点falsk和vue</t>
-  </si>
-  <si>
-    <t>学习文档;</t>
-  </si>
-  <si>
-    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
-  </si>
-  <si>
-    <t>寻找解决前后端交互的方法</t>
-  </si>
-  <si>
-    <t>没解决</t>
-  </si>
-  <si>
-    <t>总结：学习新东西，不能从头到尾全
-部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
-  </si>
-  <si>
-    <t>把调节接口的前端进行修改</t>
-  </si>
-  <si>
-    <t>学习小组完成服务的代码</t>
-  </si>
-  <si>
-    <t>能看懂的更多了，还需要查阅</t>
-  </si>
-  <si>
-    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>和小组一块讨论调用接口问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -363,120 +187,277 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优化前端界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前端界面收尾，准备开始实现前后端交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实现前后端交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前后端数据交互和跨域问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前端的数据能传到后端，但是后端传不到前端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跨域解决，数据接收存在问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前后端可以互相传递数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理前端接收到的数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>整合vue和接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>看清华大学自然语言研究报告，普及知识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小组会议，安排下一周工作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每周例会，明确本周任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>了解CRF的基本原理和安装</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>尝试用CRF进行分词标注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未完成，待续</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用CRF完成中文分词</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>真难</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习用crf进行标注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
+  <si>
+    <t>开会，查看老师发的文档</t>
+  </si>
+  <si>
+    <t>开始接触CRF++，是一个能训练的工具</t>
+  </si>
+  <si>
+    <t>稍微有点了解</t>
+  </si>
+  <si>
+    <t>通过分词，开始去使用CRF++的训练功能</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>没完成，有点蒙</t>
+  </si>
+  <si>
+    <t>继续，对分词进行训练</t>
+  </si>
+  <si>
+    <t>大致完成</t>
+  </si>
+  <si>
+    <t>安装pytorch，解决命令行conda一直报错</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +482,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,22 +633,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +654,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -623,13 +927,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,9 +1185,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,21 +1206,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,18 +1218,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -976,28 +1569,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D42"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,22 +1604,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1037,11 +1630,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1051,9 +1644,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1063,9 +1656,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1075,8 +1668,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1089,8 +1682,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1101,8 +1694,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1113,11 +1706,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1127,9 +1720,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1139,9 +1732,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1151,11 +1744,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1165,9 +1758,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1177,9 +1770,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1189,8 +1782,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1203,8 +1796,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1215,8 +1808,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1227,8 +1820,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1241,8 +1834,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1253,8 +1846,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1858,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1279,8 +1872,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1291,8 +1884,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,481 +1896,481 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>93</v>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>93</v>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>93</v>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>93</v>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
         <v>43675</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>93</v>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
         <v>43676</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>93</v>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="42" customHeight="1" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="42" customHeight="1" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="42" customHeight="1" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="42" customHeight="1" spans="1:4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="42" customHeight="1" spans="1:4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="42" customHeight="1" spans="1:4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="42" customHeight="1" spans="1:4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="42" customHeight="1" spans="1:4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="42" customHeight="1" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="42" customHeight="1" spans="1:4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="42" customHeight="1" spans="1:4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="42" customHeight="1" spans="1:4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="42" customHeight="1" spans="1:4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="42" customHeight="1" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="42" customHeight="1" spans="1:4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="42" customHeight="1" spans="1:4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="42" customHeight="1" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="42" customHeight="1" spans="1:4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="42" customHeight="1" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="42" customHeight="1" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="42" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="42" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="42" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="42" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="42" customHeight="1" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="42" customHeight="1" spans="1:4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="42" customHeight="1" spans="1:4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="42" customHeight="1" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="42" customHeight="1" spans="1:4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="42" customHeight="1" spans="1:4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="42" customHeight="1" spans="1:4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="42" customHeight="1" spans="1:4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="42" customHeight="1" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="42" customHeight="1" spans="1:4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="42" customHeight="1" spans="1:4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="42" customHeight="1" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="42" customHeight="1" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="42" customHeight="1" spans="1:4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="42" customHeight="1" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="42" customHeight="1" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1785,44 +2378,45 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1836,113 +2430,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1952,35 +2546,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1990,9 +2584,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2002,9 +2596,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2014,149 +2608,150 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2170,114 +2765,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2286,323 +2881,397 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>43665</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>43666</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>43670</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>43671</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
+      <c r="C32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>43672</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>43673</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
+      <c r="C38" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="14">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2621,8 +3290,8 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="8327" activeTab="2"/>
+    <workbookView windowWidth="22620" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>日期</t>
   </si>
@@ -177,7 +177,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>下午2</t>
     </r>
@@ -188,7 +187,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
@@ -314,6 +312,52 @@
     <t>编写小组前端网页</t>
   </si>
   <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -375,12 +419,6 @@
   </si>
   <si>
     <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
   </si>
   <si>
     <t>查看element</t>
@@ -430,9 +468,6 @@
   </si>
   <si>
     <t>通过分词，开始去使用CRF++的训练功能</t>
-  </si>
-  <si>
-    <t>对分词进行训练</t>
   </si>
   <si>
     <t>没完成，有点蒙</t>
@@ -453,9 +488,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -483,9 +518,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,25 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,21 +556,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +569,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -579,8 +598,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -588,7 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +631,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,17 +653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,7 +691,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,19 +823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,151 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,51 +967,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,6 +1003,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1025,6 +1049,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,137 +1080,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,9 +1254,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1573,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -1581,11 +1613,11 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -2400,20 +2432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2718,14 +2750,208 @@
         <v>75</v>
       </c>
     </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2734,20 +2960,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2785,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -2799,7 +3025,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2811,10 +3037,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -2823,10 +3049,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -2837,7 +3063,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -2849,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -2861,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -2887,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>71</v>
@@ -2899,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>71</v>
@@ -2913,7 +3139,7 @@
         <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
@@ -2925,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>71</v>
@@ -2937,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2963,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -2985,7 +3211,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2997,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3009,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
@@ -3023,10 +3249,10 @@
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
@@ -3035,10 +3261,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
@@ -3047,10 +3273,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
@@ -3061,7 +3287,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3073,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
@@ -3085,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>
@@ -3099,7 +3325,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>71</v>
@@ -3111,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>71</v>
@@ -3123,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>71</v>
@@ -3137,7 +3363,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -3147,10 +3373,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
@@ -3159,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -3171,7 +3397,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -3183,10 +3409,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -3195,7 +3421,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -3207,29 +3433,29 @@
         <v>68</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>75</v>
@@ -3243,31 +3469,31 @@
         <v>68</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>6</v>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3355B44-96C4-427A-8D13-AB46981E1C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22620" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="3630" yWindow="2565" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
     <sheet name="张新博" sheetId="2" r:id="rId2"/>
     <sheet name="张有胜" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
   <si>
     <t>日期</t>
   </si>
@@ -481,18 +494,58 @@
   <si>
     <t>安装pytorch，解决命令行conda一直报错</t>
   </si>
+  <si>
+    <t>2019年7月31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对crf进行语义角色标注陷入迷茫之中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始搭建基本框架进行语义角色标注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,150 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,11 +581,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,194 +606,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -962,255 +693,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,19 +709,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,68 +754,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1601,28 +1067,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,22 +1102,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1662,11 +1128,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1676,9 +1142,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1688,9 +1154,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1700,8 +1166,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1714,8 +1180,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1726,8 +1192,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1738,11 +1204,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1752,9 +1218,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1764,9 +1230,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1776,11 +1242,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1790,9 +1256,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1802,9 +1268,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1814,8 +1280,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1828,8 +1294,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1840,8 +1306,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1852,8 +1318,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1866,8 +1332,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1878,8 +1344,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1890,8 +1356,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1904,8 +1370,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1916,8 +1382,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1928,11 +1394,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1942,9 +1408,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1954,9 +1420,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1966,11 +1432,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1980,9 +1446,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1992,9 +1458,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2004,11 +1470,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2018,9 +1484,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2030,9 +1496,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2042,11 +1508,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2056,9 +1522,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2068,9 +1534,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="42" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2080,11 +1546,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="42" customHeight="1" spans="1:4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
         <v>43675</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2094,9 +1560,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="42" customHeight="1" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2106,9 +1572,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="42" customHeight="1" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2118,11 +1584,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" ht="42" customHeight="1" spans="1:4">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
         <v>43676</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2132,9 +1598,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="42" customHeight="1" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2144,9 +1610,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" ht="42" customHeight="1" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2156,828 +1622,848 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="42" customHeight="1" spans="1:4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" ht="42" customHeight="1" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="42" customHeight="1" spans="1:4">
+    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="20" t="e">
+        <f>--C44</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" ht="42" customHeight="1" spans="1:4">
+    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="42" customHeight="1" spans="1:4">
+    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="42" customHeight="1" spans="1:4">
+    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" ht="42" customHeight="1" spans="1:4">
+    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" ht="42" customHeight="1" spans="1:4">
+    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" ht="42" customHeight="1" spans="1:4">
+    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="42" customHeight="1" spans="1:4">
+    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="42" customHeight="1" spans="1:4">
+    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="42" customHeight="1" spans="1:4">
+    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="42" customHeight="1" spans="1:4">
+    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="42" customHeight="1" spans="1:4">
+    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="42" customHeight="1" spans="1:4">
+    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="42" customHeight="1" spans="1:4">
+    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="42" customHeight="1" spans="1:4">
+    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="42" customHeight="1" spans="1:4">
+    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="42" customHeight="1" spans="1:4">
+    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="42" customHeight="1" spans="1:4">
+    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="42" customHeight="1" spans="1:4">
+    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="42" customHeight="1" spans="1:4">
+    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="42" customHeight="1" spans="1:4">
+    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" ht="42" customHeight="1" spans="1:4">
+    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" ht="42" customHeight="1" spans="1:4">
+    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" ht="42" customHeight="1" spans="1:4">
+    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" ht="42" customHeight="1" spans="1:4">
+    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" ht="42" customHeight="1" spans="1:4">
+    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" ht="42" customHeight="1" spans="1:4">
+    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" ht="42" customHeight="1" spans="1:4">
+    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" ht="42" customHeight="1" spans="1:4">
+    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" ht="42" customHeight="1" spans="1:4">
+    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" ht="42" customHeight="1" spans="1:4">
+    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" ht="42" customHeight="1" spans="1:4">
+    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" ht="42" customHeight="1" spans="1:4">
+    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" ht="42" customHeight="1" spans="1:4">
+    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" ht="42" customHeight="1" spans="1:4">
+    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" ht="42" customHeight="1" spans="1:4">
+    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" ht="42" customHeight="1" spans="1:4">
+    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" ht="42" customHeight="1" spans="1:4">
+    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" ht="42" customHeight="1" spans="1:4">
+    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>43661</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
-        <v>43661</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
-        <v>43662</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
-        <v>43663</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
-        <v>43664</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
-        <v>43665</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
-        <v>43666</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
-        <v>43668</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
-        <v>43669</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="7">
-        <v>43670</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
-        <v>43671</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
-        <v>43672</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
-        <v>43673</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="3">
-        <v>43675</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2991,22 +2477,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3017,11 +2503,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3031,9 +2517,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3043,8 +2529,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3055,8 +2541,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3069,8 +2555,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3081,8 +2567,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3093,11 +2579,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3107,9 +2593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3119,8 +2605,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3131,11 +2617,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3145,9 +2631,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3157,8 +2643,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3169,11 +2655,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3183,9 +2669,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3195,16 +2681,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3217,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -3229,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -3241,11 +2727,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3255,9 +2741,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3267,8 +2753,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -3279,11 +2765,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3293,9 +2779,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3305,8 +2791,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -3317,11 +2803,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3331,9 +2817,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3343,8 +2829,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3355,45 +2841,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3403,99 +2889,99 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="14">
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
         <v>43675</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="15" t="s">
+    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="14">
+    <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
         <v>43676</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="15" t="s">
+    <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3516,8 +3002,8 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3355B44-96C4-427A-8D13-AB46981E1C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F403F-0973-427D-B424-522B73C0C6B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="2565" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="145">
   <si>
     <t>日期</t>
   </si>
@@ -540,12 +540,58 @@
     <t>开始搭建基本框架进行语义角色标注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善自己搭建的框架并解决问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过死数据并拿到数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>再用前端输入数据进行传递，但是后端接收不到数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +635,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -727,13 +779,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,21 +819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1128,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A46" sqref="A46:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,7 +1155,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1117,7 +1169,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1181,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1143,7 +1195,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1219,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1181,7 +1233,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1193,7 +1245,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1257,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1219,7 +1271,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1283,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1257,7 +1309,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1321,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1333,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1295,7 +1347,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1359,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1371,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1333,7 +1385,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1397,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1409,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1371,7 +1423,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1435,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1447,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1409,7 +1461,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1421,7 +1473,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1433,7 +1485,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1447,7 +1499,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1459,7 +1511,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1523,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1485,7 +1537,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1549,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1561,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1523,7 +1575,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1535,7 +1587,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1599,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1561,7 +1613,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1573,7 +1625,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1637,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+      <c r="A40" s="11">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1599,7 +1651,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
@@ -1611,7 +1663,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1623,61 +1675,81 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="20" t="e">
+      <c r="D43" s="10" t="e">
         <f>--C44</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="11">
+        <v>43678</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -1896,22 +1968,23 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2014,7 +2087,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2028,7 +2101,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +2113,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2125,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2066,7 +2139,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2151,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2163,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2104,7 +2177,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2189,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2128,7 +2201,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2142,7 +2215,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2227,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2235,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2176,7 +2249,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2261,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2273,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2214,7 +2287,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2299,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2349,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2290,7 +2363,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
@@ -2302,7 +2375,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2314,7 +2387,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2328,7 +2401,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +2413,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2352,7 +2425,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2366,7 +2439,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
@@ -2378,7 +2451,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2463,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2404,7 +2477,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
@@ -2416,7 +2489,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2429,16 +2502,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,7 +2551,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2492,7 +2565,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2577,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2518,7 +2591,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2603,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2615,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2556,7 +2629,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2641,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2653,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2594,7 +2667,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2679,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2618,7 +2691,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2632,7 +2705,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2717,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2729,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2670,7 +2743,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2755,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +2801,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2742,7 +2815,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2754,7 +2827,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +2839,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2780,7 +2853,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2865,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2877,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2818,7 +2891,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2830,7 +2903,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2842,19 +2915,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2866,17 +2939,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2890,7 +2963,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2902,14 +2975,14 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F403F-0973-427D-B424-522B73C0C6B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2565" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
     <sheet name="张新博" sheetId="2" r:id="rId2"/>
     <sheet name="张有胜" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
   <si>
     <t>日期</t>
   </si>
@@ -183,6 +170,69 @@
     <t>和小组一块讨论调用接口问题</t>
   </si>
   <si>
+    <t>优化前端界面</t>
+  </si>
+  <si>
+    <t>前端界面收尾，准备开始实现前后端交互</t>
+  </si>
+  <si>
+    <t>实现前后端交互</t>
+  </si>
+  <si>
+    <t>前后端数据交互和跨域问题</t>
+  </si>
+  <si>
+    <t>前端的数据能传到后端，但是后端传不到前端</t>
+  </si>
+  <si>
+    <t>跨域解决，数据接收存在问题</t>
+  </si>
+  <si>
+    <t>前后端可以互相传递数据</t>
+  </si>
+  <si>
+    <t>处理前端接收到的数据</t>
+  </si>
+  <si>
+    <t>整合vue和接口</t>
+  </si>
+  <si>
+    <t>看清华大学自然语言研究报告，普及知识</t>
+  </si>
+  <si>
+    <t>小组会议，安排下一周工作</t>
+  </si>
+  <si>
+    <t>每周例会，明确本周任务</t>
+  </si>
+  <si>
+    <t>了解CRF的基本原理和安装</t>
+  </si>
+  <si>
+    <t>尝试用CRF进行分词标注</t>
+  </si>
+  <si>
+    <t>未完成，待续</t>
+  </si>
+  <si>
+    <t>用CRF完成中文分词</t>
+  </si>
+  <si>
+    <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
+  </si>
+  <si>
+    <t>真难</t>
+  </si>
+  <si>
+    <t>学习用crf进行标注</t>
+  </si>
+  <si>
+    <t>2019年7月31</t>
+  </si>
+  <si>
+    <t>对crf进行语义角色标注陷入迷茫之中</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -190,6 +240,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>下午2</t>
     </r>
@@ -200,138 +251,19 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
   </si>
   <si>
-    <t>优化前端界面</t>
-  </si>
-  <si>
-    <t>前端界面收尾，准备开始实现前后端交互</t>
-  </si>
-  <si>
-    <t>实现前后端交互</t>
-  </si>
-  <si>
-    <t>前后端数据交互和跨域问题</t>
-  </si>
-  <si>
-    <t>前端的数据能传到后端，但是后端传不到前端</t>
-  </si>
-  <si>
-    <t>跨域解决，数据接收存在问题</t>
-  </si>
-  <si>
-    <t>前后端可以互相传递数据</t>
-  </si>
-  <si>
-    <t>处理前端接收到的数据</t>
-  </si>
-  <si>
-    <t>整合vue和接口</t>
-  </si>
-  <si>
-    <t>看清华大学自然语言研究报告，普及知识</t>
-  </si>
-  <si>
-    <t>小组会议，安排下一周工作</t>
-  </si>
-  <si>
-    <t>每周例会，明确本周任务</t>
-  </si>
-  <si>
-    <t>了解CRF的基本原理和安装</t>
-  </si>
-  <si>
-    <t>尝试用CRF进行分词标注</t>
-  </si>
-  <si>
-    <t>未完成，待续</t>
-  </si>
-  <si>
-    <t>用CRF完成中文分词</t>
-  </si>
-  <si>
-    <t>学习Deep Semantic Role Labeling with Self-Attention真难</t>
-  </si>
-  <si>
-    <t>真难</t>
-  </si>
-  <si>
-    <t>学习用crf进行标注</t>
-  </si>
-  <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
-  </si>
-  <si>
-    <t>深入学习语义角色标注：</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及一些包的介绍</t>
-  </si>
-  <si>
-    <t>安装并配置Anaconda</t>
-  </si>
-  <si>
-    <t>学习《数学之美》</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
-    <t>学习文档;了解Numpy</t>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
-  </si>
-  <si>
-    <t>配置vue运行环境</t>
-  </si>
-  <si>
-    <t>学习vue基础知识</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>深入学习vue</t>
-  </si>
-  <si>
-    <t>在电脑上安装mac操作系统</t>
-  </si>
-  <si>
-    <t>编写小组前端网页</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
-  </si>
-  <si>
-    <t>查看elementUI</t>
+    <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
+  </si>
+  <si>
+    <t>开始搭建基本框架进行语义角色标注</t>
+  </si>
+  <si>
+    <t>完善自己搭建的框架并解决问题</t>
   </si>
   <si>
     <r>
@@ -341,6 +273,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>下午2</t>
     </r>
@@ -351,247 +284,252 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
-    <t>前后端数据交互</t>
-  </si>
-  <si>
-    <t>数据能互相传递</t>
-  </si>
-  <si>
-    <t>数据接收存在问题</t>
-  </si>
-  <si>
-    <t>对分词进行训练</t>
-  </si>
-  <si>
-    <t>基本完成</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>整理笔记，学习flask</t>
-  </si>
-  <si>
-    <t>学习flask-WTF实现表单</t>
-  </si>
-  <si>
-    <t>了解自然语言处理的相关名词</t>
-  </si>
-  <si>
-    <t>开会，看文档</t>
-  </si>
-  <si>
-    <t>看文档，配置node</t>
-  </si>
-  <si>
-    <t>学习vue</t>
-  </si>
-  <si>
-    <t>没完成</t>
-  </si>
-  <si>
-    <t>有点难</t>
-  </si>
-  <si>
-    <t>配置ltp</t>
-  </si>
-  <si>
-    <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>查看element</t>
-  </si>
-  <si>
-    <t>查看文档和element</t>
-  </si>
-  <si>
-    <t>又看了点falsk和vue</t>
-  </si>
-  <si>
-    <t>学习文档;</t>
-  </si>
-  <si>
-    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
-  </si>
-  <si>
-    <t>寻找解决前后端交互的方法</t>
-  </si>
-  <si>
-    <t>没解决</t>
-  </si>
-  <si>
-    <t>总结：学习新东西，不能从头到尾全
-部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
-  </si>
-  <si>
-    <t>把调节接口的前端进行修改</t>
-  </si>
-  <si>
-    <t>学习小组完成服务的代码</t>
-  </si>
-  <si>
-    <t>能看懂的更多了，还需要查阅</t>
-  </si>
-  <si>
-    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
-  </si>
-  <si>
-    <t>开会，查看老师发的文档</t>
-  </si>
-  <si>
-    <t>开始接触CRF++，是一个能训练的工具</t>
-  </si>
-  <si>
-    <t>稍微有点了解</t>
-  </si>
-  <si>
-    <t>通过分词，开始去使用CRF++的训练功能</t>
-  </si>
-  <si>
-    <t>没完成，有点蒙</t>
-  </si>
-  <si>
-    <t>继续，对分词进行训练</t>
-  </si>
-  <si>
-    <t>大致完成</t>
-  </si>
-  <si>
-    <t>安装pytorch，解决命令行conda一直报错</t>
-  </si>
-  <si>
-    <t>2019年7月31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对crf进行语义角色标注陷入迷茫之中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始搭建基本框架进行语义角色标注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善自己搭建的框架并解决问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先通过死数据并拿到数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>再用前端输入数据进行传递，但是后端接收不到数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
+  <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
+  <si>
+    <t>开会，查看老师发的文档</t>
+  </si>
+  <si>
+    <t>开始接触CRF++，是一个能训练的工具</t>
+  </si>
+  <si>
+    <t>稍微有点了解</t>
+  </si>
+  <si>
+    <t>通过分词，开始去使用CRF++的训练功能</t>
+  </si>
+  <si>
+    <t>没完成，有点蒙</t>
+  </si>
+  <si>
+    <t>继续，对分词进行训练</t>
+  </si>
+  <si>
+    <t>大致完成</t>
+  </si>
+  <si>
+    <t>安装pytorch，解决命令行conda一直报错</t>
+  </si>
+  <si>
+    <t>查看去年学长代码</t>
+  </si>
+  <si>
+    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
+  </si>
+  <si>
+    <t>感觉有点复杂</t>
+  </si>
+  <si>
+    <t>开始修改别人代码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,31 +559,161 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,8 +726,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -745,13 +999,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,9 +1257,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,66 +1278,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,28 +1653,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D48"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1154,22 +1688,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1180,11 +1714,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1194,9 +1728,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1206,9 +1740,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1218,8 +1752,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1232,8 +1766,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1244,8 +1778,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1256,11 +1790,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1270,9 +1804,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1282,9 +1816,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1294,11 +1828,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1308,9 +1842,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1320,9 +1854,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1332,8 +1866,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1346,8 +1880,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1358,8 +1892,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,8 +1904,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1384,8 +1918,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1396,8 +1930,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,8 +1942,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1422,8 +1956,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1434,8 +1968,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1446,11 +1980,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1460,508 +1994,508 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>43672</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
-        <v>43675</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11">
-        <v>43676</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="2" t="s">
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="10" t="e">
+    <row r="43" ht="42" customHeight="1" spans="1:4">
+      <c r="A43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="18" t="e">
         <f>--C44</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+    <row r="44" ht="42" customHeight="1" spans="1:4">
+      <c r="A44" s="19"/>
+      <c r="B44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:4">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
         <v>43678</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>137</v>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="3" t="s">
-        <v>140</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="3" t="s">
-        <v>142</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="42" customHeight="1" spans="1:4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="42" customHeight="1" spans="1:4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="42" customHeight="1" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="42" customHeight="1" spans="1:4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="42" customHeight="1" spans="1:4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="42" customHeight="1" spans="1:4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="42" customHeight="1" spans="1:4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="42" customHeight="1" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="42" customHeight="1" spans="1:4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="42" customHeight="1" spans="1:4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="42" customHeight="1" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="42" customHeight="1" spans="1:4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="42" customHeight="1" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="42" customHeight="1" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="42" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="42" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="42" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="42" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="42" customHeight="1" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="42" customHeight="1" spans="1:4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="42" customHeight="1" spans="1:4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="42" customHeight="1" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="42" customHeight="1" spans="1:4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="42" customHeight="1" spans="1:4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="42" customHeight="1" spans="1:4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="42" customHeight="1" spans="1:4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="42" customHeight="1" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="42" customHeight="1" spans="1:4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="42" customHeight="1" spans="1:4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="42" customHeight="1" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="42" customHeight="1" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="42" customHeight="1" spans="1:4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="42" customHeight="1" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="42" customHeight="1" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1969,7 +2503,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -1985,30 +2518,32 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2022,113 +2557,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2138,35 +2673,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2176,9 +2711,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2188,9 +2723,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2200,301 +2735,301 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="7">
         <v>43670</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="3" t="s">
-        <v>82</v>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
         <v>43675</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="3" t="s">
-        <v>82</v>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -2513,30 +3048,31 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2550,114 +3086,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2666,400 +3202,438 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>68</v>
+      <c r="B25" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
-        <v>43671</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>43672</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
-        <v>43673</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>43675</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="14">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
-        <v>43676</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>6</v>
+      <c r="C44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3074,9 +3648,10 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="146">
   <si>
     <t>日期</t>
   </si>
@@ -266,30 +266,6 @@
     <t>完善自己搭建的框架并解决问题</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
     <t>先通过死数据并拿到数据</t>
   </si>
   <si>
@@ -517,6 +493,27 @@
   </si>
   <si>
     <t>开始修改别人代码</t>
+  </si>
+  <si>
+    <t>先用别人的模型尝试</t>
+  </si>
+  <si>
+    <t>先把数据写死，尝试语义角色标注</t>
+  </si>
+  <si>
+    <t>解决前端往后端返回有问题</t>
+  </si>
+  <si>
+    <t>完善整个服务</t>
+  </si>
+  <si>
+    <t>最终能粗略实现语义角色标注</t>
+  </si>
+  <si>
+    <t>开始学习pytorch</t>
+  </si>
+  <si>
+    <t>发现这个特别难</t>
   </si>
 </sst>
 </file>
@@ -529,7 +526,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,55 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,11 +580,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,15 +604,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +648,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -669,10 +656,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,23 +679,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,132 +717,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -866,7 +729,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,13 +807,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,19 +861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,17 +989,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,17 +1008,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1050,11 +1028,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,30 +1086,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,10 +1094,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,137 +1106,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,19 +1285,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1661,7 +1644,7 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -2212,38 +2195,38 @@
       <c r="A43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18" t="e">
+      <c r="D43" s="2" t="e">
         <f>--C44</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="18" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2264,10 +2247,10 @@
     <row r="47" ht="42" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2279,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
@@ -2565,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2577,7 +2560,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -2591,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -2603,7 +2586,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -2615,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -2629,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2641,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -2653,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -2679,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2691,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -2740,10 +2723,10 @@
         <v>43666</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -2755,10 +2738,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
@@ -2774,10 +2757,10 @@
         <v>43668</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2789,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -2801,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
@@ -2812,10 +2795,10 @@
         <v>43669</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -2827,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -2839,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
@@ -2850,10 +2833,10 @@
         <v>43670</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -2865,10 +2848,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -2877,10 +2860,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
@@ -2903,10 +2886,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
@@ -2918,7 +2901,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
@@ -3017,10 +3000,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
@@ -3057,10 +3040,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -3094,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -3106,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3117,10 +3100,10 @@
         <v>43662</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -3132,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -3144,10 +3127,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -3155,10 +3138,10 @@
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -3170,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
@@ -3182,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -3193,7 +3176,7 @@
         <v>43664</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -3208,10 +3191,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
@@ -3220,10 +3203,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
@@ -3231,13 +3214,13 @@
         <v>43665</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
@@ -3246,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
@@ -3258,7 +3241,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3269,10 +3252,10 @@
         <v>43666</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3284,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3303,10 +3286,10 @@
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3318,7 +3301,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3330,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
@@ -3341,13 +3324,13 @@
         <v>43669</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
@@ -3356,10 +3339,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
@@ -3368,10 +3351,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
@@ -3379,10 +3362,10 @@
         <v>43670</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3394,10 +3377,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
@@ -3406,10 +3389,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
@@ -3417,13 +3400,13 @@
         <v>43671</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
@@ -3432,10 +3415,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
@@ -3444,10 +3427,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
@@ -3455,10 +3438,10 @@
         <v>43672</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -3468,10 +3451,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
@@ -3480,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -3489,10 +3472,10 @@
         <v>43673</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -3504,10 +3487,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -3516,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -3525,35 +3508,35 @@
         <v>43675</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="15" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="D39" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
@@ -3561,34 +3544,34 @@
         <v>43676</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="15" t="s">
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>6</v>
@@ -3599,10 +3582,10 @@
         <v>43677</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -3614,10 +3597,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
@@ -3626,14 +3609,90 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>83</v>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3648,7 +3707,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCBA1A0-E9B4-4EC3-8BC8-69BFEDEFA511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView xWindow="3630" yWindow="2565" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
     <sheet name="张新博" sheetId="2" r:id="rId2"/>
     <sheet name="张有胜" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="154">
   <si>
     <t>日期</t>
   </si>
@@ -515,18 +528,58 @@
   <si>
     <t>发现这个特别难</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过一番努力，通过自己的模型，分词等终于拿到数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理json数据并整理gitlab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过看视频，写代码学习pytorch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,158 +604,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,194 +640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -988,255 +727,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,11 +743,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,7 +767,13 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1282,74 +797,33 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1636,28 +1110,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1671,22 +1145,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1697,11 +1171,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1711,9 +1185,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1723,9 +1197,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1735,8 +1209,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1749,8 +1223,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1761,8 +1235,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1773,11 +1247,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1787,9 +1261,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1799,9 +1273,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1811,11 +1285,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1825,9 +1299,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1837,9 +1311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1849,8 +1323,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1863,8 +1337,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1875,8 +1349,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1887,8 +1361,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1901,8 +1375,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1913,8 +1387,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1925,8 +1399,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1939,8 +1413,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1951,8 +1425,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1963,11 +1437,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1977,9 +1451,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1989,9 +1463,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2001,11 +1475,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2015,9 +1489,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2027,9 +1501,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2039,11 +1513,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2053,9 +1527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2065,9 +1539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2077,11 +1551,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2091,9 +1565,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2103,9 +1577,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="42" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2115,11 +1589,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="42" customHeight="1" spans="1:4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
         <v>43675</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2129,9 +1603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="42" customHeight="1" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2141,9 +1615,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="42" customHeight="1" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2153,11 +1627,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" ht="42" customHeight="1" spans="1:4">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
         <v>43676</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2167,9 +1641,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="42" customHeight="1" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2179,9 +1653,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" ht="42" customHeight="1" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2191,11 +1665,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="42" customHeight="1" spans="1:4">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2206,9 +1680,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2218,9 +1692,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" ht="42" customHeight="1" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2230,11 +1704,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" ht="42" customHeight="1" spans="1:4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
         <v>43678</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2244,9 +1718,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="42" customHeight="1" spans="1:4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2256,9 +1730,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" ht="42" customHeight="1" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2268,265 +1742,285 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="42" customHeight="1" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" ht="42" customHeight="1" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" ht="42" customHeight="1" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" ht="42" customHeight="1" spans="1:4">
+    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="21">
+        <v>43679</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="24"/>
+      <c r="B50" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="42" customHeight="1" spans="1:4">
+    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="42" customHeight="1" spans="1:4">
+    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="42" customHeight="1" spans="1:4">
+    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="42" customHeight="1" spans="1:4">
+    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="42" customHeight="1" spans="1:4">
+    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="42" customHeight="1" spans="1:4">
+    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="42" customHeight="1" spans="1:4">
+    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="42" customHeight="1" spans="1:4">
+    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="42" customHeight="1" spans="1:4">
+    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="42" customHeight="1" spans="1:4">
+    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="42" customHeight="1" spans="1:4">
+    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="42" customHeight="1" spans="1:4">
+    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="42" customHeight="1" spans="1:4">
+    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="42" customHeight="1" spans="1:4">
+    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" ht="42" customHeight="1" spans="1:4">
+    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" ht="42" customHeight="1" spans="1:4">
+    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" ht="42" customHeight="1" spans="1:4">
+    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" ht="42" customHeight="1" spans="1:4">
+    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" ht="42" customHeight="1" spans="1:4">
+    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" ht="42" customHeight="1" spans="1:4">
+    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" ht="42" customHeight="1" spans="1:4">
+    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" ht="42" customHeight="1" spans="1:4">
+    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" ht="42" customHeight="1" spans="1:4">
+    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" ht="42" customHeight="1" spans="1:4">
+    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" ht="42" customHeight="1" spans="1:4">
+    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" ht="42" customHeight="1" spans="1:4">
+    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" ht="42" customHeight="1" spans="1:4">
+    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" ht="42" customHeight="1" spans="1:4">
+    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" ht="42" customHeight="1" spans="1:4">
+    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" ht="42" customHeight="1" spans="1:4">
+    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" ht="42" customHeight="1" spans="1:4">
+    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" ht="42" customHeight="1" spans="1:4">
+    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2540,21 +2034,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -2566,8 +2060,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2580,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -2592,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -2604,11 +2098,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2618,9 +2112,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2630,9 +2124,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2642,11 +2136,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2656,9 +2150,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2668,9 +2162,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2680,11 +2174,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2694,9 +2188,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2706,9 +2200,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2718,11 +2212,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2732,9 +2226,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2744,19 +2238,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>43668</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2766,9 +2260,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2778,8 +2272,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2790,11 +2284,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2804,9 +2298,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2816,8 +2310,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2828,8 +2322,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>43670</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2842,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -2854,7 +2348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -2866,11 +2360,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2880,9 +2374,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2892,9 +2386,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2904,11 +2398,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2918,9 +2412,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2930,9 +2424,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2942,11 +2436,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2956,9 +2450,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2968,9 +2462,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2980,11 +2474,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
         <v>43675</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2994,9 +2488,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3006,9 +2500,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3020,42 +2514,41 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3069,22 +2562,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3095,11 +2588,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3109,9 +2602,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3121,8 +2614,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3133,8 +2626,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3147,8 +2640,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3159,8 +2652,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3171,11 +2664,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>43664</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3185,9 +2678,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3197,8 +2690,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3209,11 +2702,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>43665</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3223,9 +2716,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3235,8 +2728,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3247,11 +2740,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>43666</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3261,9 +2754,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3273,16 +2766,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3295,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -3307,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -3319,11 +2812,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>43669</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3333,9 +2826,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3345,8 +2838,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -3357,11 +2850,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>43670</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3371,9 +2864,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3383,8 +2876,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -3395,11 +2888,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>43671</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3409,9 +2902,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3421,8 +2914,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3433,45 +2926,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>43672</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
-      <c r="A34" s="3">
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>43673</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3481,107 +2974,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="14">
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20">
         <v>43675</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="15" t="s">
+    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="14">
+    <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20">
         <v>43676</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="15" t="s">
+    <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="3">
+      <c r="D42" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
         <v>43677</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3591,20 +3084,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
@@ -3615,11 +3108,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
         <v>43678</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3629,9 +3122,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3641,8 +3134,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
@@ -3653,11 +3146,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="3">
+    <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
         <v>43679</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3667,9 +3160,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3679,8 +3172,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -3693,6 +3186,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3707,14 +3205,9 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCBA1A0-E9B4-4EC3-8BC8-69BFEDEFA511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB85A10-0D3D-4411-98EC-B87BEE3DA551}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2565" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2955" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
   <si>
     <t>日期</t>
   </si>
@@ -574,12 +574,57 @@
     <t>待续</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过看视频，写代码学习pytorch</t>
+  </si>
+  <si>
+    <t>还没学完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单了解神经网络</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将模型部署到服务器上，修改model路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +668,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -758,13 +809,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,6 +840,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -792,24 +861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1197,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1160,7 +1211,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1223,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1186,7 +1237,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1249,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1261,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1224,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1236,7 +1287,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1299,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1262,7 +1313,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1325,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1337,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1300,7 +1351,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1363,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1375,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1338,7 +1389,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1401,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1413,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1376,7 +1427,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1439,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1451,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1414,7 +1465,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1477,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1489,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1452,7 +1503,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
@@ -1464,7 +1515,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1527,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+      <c r="A28" s="10">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1490,7 +1541,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1553,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1565,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1528,7 +1579,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1591,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1603,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="A34" s="10">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1566,7 +1617,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1629,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1641,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
+      <c r="A37" s="10">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1604,7 +1655,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1667,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1679,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8">
+      <c r="A40" s="10">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1642,7 +1693,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1705,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1717,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1681,7 +1732,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -1693,7 +1744,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1756,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8">
+      <c r="A46" s="10">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1719,7 +1770,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
@@ -1731,7 +1782,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1743,60 +1794,80 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="13">
         <v>43679</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="10">
+        <v>43680</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
@@ -1979,7 +2050,18 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A31:A33"/>
@@ -1987,16 +2069,6 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,7 +2171,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2113,7 +2185,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2197,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2209,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2151,7 +2223,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2235,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2247,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2189,7 +2261,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2201,7 +2273,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2285,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2227,7 +2299,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2311,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2319,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2261,7 +2333,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2345,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2357,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2299,7 +2371,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2383,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2433,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+      <c r="A28" s="10">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2375,7 +2447,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2459,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2471,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2413,7 +2485,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2497,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2509,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="A34" s="10">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2451,7 +2523,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2535,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2547,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
+      <c r="A37" s="10">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2489,7 +2561,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -2501,7 +2573,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2514,16 +2586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2563,7 +2635,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2577,7 +2649,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2661,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2603,7 +2675,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2687,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2699,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2641,7 +2713,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2725,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2665,7 +2737,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2679,7 +2751,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2691,7 +2763,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +2775,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2717,7 +2789,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2801,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2813,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2755,7 +2827,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2839,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2813,7 +2885,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2827,7 +2899,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2911,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2923,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2865,7 +2937,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2949,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +2961,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+      <c r="A28" s="10">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2903,7 +2975,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +2987,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2927,19 +2999,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2951,17 +3023,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="A34" s="10">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2975,7 +3047,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2987,17 +3059,17 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>43675</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3009,7 +3081,7 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3093,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3105,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>43676</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3047,7 +3119,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3131,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3143,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8">
+      <c r="A43" s="10">
         <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3085,7 +3157,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3169,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +3181,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8">
+      <c r="A46" s="10">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3123,7 +3195,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3135,7 +3207,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3219,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8">
+      <c r="A49" s="10">
         <v>43679</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3161,7 +3233,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3245,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -3186,11 +3258,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3205,6 +3272,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB85A10-0D3D-4411-98EC-B87BEE3DA551}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DABF2-9F57-4E80-9936-48875FAAAD0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2955" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
   <si>
     <t>日期</t>
   </si>
@@ -617,6 +617,30 @@
   </si>
   <si>
     <t>将模型部署到服务器上，修改model路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口出现问题，重新修改服务器上的model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>看pytorch官方文档了解基础</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未看完</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在B站上找资源学习pytorch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础知识还没了解完，太多了</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -842,9 +866,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +882,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1194,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D54"/>
+      <selection activeCell="A55" sqref="A55:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,22 +1894,42 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="10">
+        <v>43682</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
@@ -2050,7 +2094,10 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
@@ -2067,8 +2114,6 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2586,16 +2631,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3005,10 +3050,10 @@
       <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
@@ -3027,10 +3072,10 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
@@ -3063,13 +3108,13 @@
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="25">
         <v>43675</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3081,7 +3126,7 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -3093,7 +3138,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3150,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
+      <c r="A40" s="25">
         <v>43676</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3119,7 +3164,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3176,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
@@ -3258,6 +3303,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3272,11 +3322,6 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8345E2-809C-46FB-A291-E65F0D0E5854}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2955" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22620" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
     <sheet name="张新博" sheetId="2" r:id="rId2"/>
     <sheet name="张有胜" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>日期</t>
   </si>
@@ -253,7 +240,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>下午2</t>
     </r>
@@ -264,7 +250,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
@@ -285,263 +270,17 @@
     <t>再用前端输入数据进行传递，但是后端接收不到数据</t>
   </si>
   <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
-  </si>
-  <si>
-    <t>深入学习语义角色标注：</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及一些包的介绍</t>
-  </si>
-  <si>
-    <t>安装并配置Anaconda</t>
-  </si>
-  <si>
-    <t>学习《数学之美》</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
-    <t>学习文档;了解Numpy</t>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
-  </si>
-  <si>
-    <t>配置vue运行环境</t>
-  </si>
-  <si>
-    <t>学习vue基础知识</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>深入学习vue</t>
-  </si>
-  <si>
-    <t>在电脑上安装mac操作系统</t>
-  </si>
-  <si>
-    <t>编写小组前端网页</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
-  </si>
-  <si>
-    <t>查看elementUI</t>
-  </si>
-  <si>
-    <t>前后端数据交互</t>
-  </si>
-  <si>
-    <t>数据能互相传递</t>
-  </si>
-  <si>
-    <t>数据接收存在问题</t>
-  </si>
-  <si>
-    <t>对分词进行训练</t>
-  </si>
-  <si>
-    <t>基本完成</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>整理笔记，学习flask</t>
-  </si>
-  <si>
-    <t>学习flask-WTF实现表单</t>
-  </si>
-  <si>
-    <t>了解自然语言处理的相关名词</t>
-  </si>
-  <si>
-    <t>开会，看文档</t>
-  </si>
-  <si>
-    <t>看文档，配置node</t>
-  </si>
-  <si>
-    <t>学习vue</t>
-  </si>
-  <si>
-    <t>没完成</t>
-  </si>
-  <si>
-    <t>有点难</t>
-  </si>
-  <si>
-    <t>配置ltp</t>
-  </si>
-  <si>
-    <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>查看element</t>
-  </si>
-  <si>
-    <t>查看文档和element</t>
-  </si>
-  <si>
-    <t>又看了点falsk和vue</t>
-  </si>
-  <si>
-    <t>学习文档;</t>
-  </si>
-  <si>
-    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
-  </si>
-  <si>
-    <t>寻找解决前后端交互的方法</t>
-  </si>
-  <si>
-    <t>没解决</t>
-  </si>
-  <si>
-    <t>总结：学习新东西，不能从头到尾全
-部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
-  </si>
-  <si>
-    <t>把调节接口的前端进行修改</t>
-  </si>
-  <si>
-    <t>学习小组完成服务的代码</t>
-  </si>
-  <si>
-    <t>能看懂的更多了，还需要查阅</t>
-  </si>
-  <si>
-    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
-  </si>
-  <si>
-    <t>开会，查看老师发的文档</t>
-  </si>
-  <si>
-    <t>开始接触CRF++，是一个能训练的工具</t>
-  </si>
-  <si>
-    <t>稍微有点了解</t>
-  </si>
-  <si>
-    <t>通过分词，开始去使用CRF++的训练功能</t>
-  </si>
-  <si>
-    <t>没完成，有点蒙</t>
-  </si>
-  <si>
-    <t>继续，对分词进行训练</t>
-  </si>
-  <si>
-    <t>大致完成</t>
-  </si>
-  <si>
-    <t>安装pytorch，解决命令行conda一直报错</t>
-  </si>
-  <si>
-    <t>查看去年学长代码</t>
-  </si>
-  <si>
-    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
-  </si>
-  <si>
-    <t>感觉有点复杂</t>
-  </si>
-  <si>
-    <t>开始修改别人代码</t>
-  </si>
-  <si>
-    <t>先用别人的模型尝试</t>
-  </si>
-  <si>
-    <t>先把数据写死，尝试语义角色标注</t>
-  </si>
-  <si>
-    <t>解决前端往后端返回有问题</t>
-  </si>
-  <si>
-    <t>完善整个服务</t>
-  </si>
-  <si>
-    <t>最终能粗略实现语义角色标注</t>
-  </si>
-  <si>
-    <t>开始学习pytorch</t>
-  </si>
-  <si>
-    <t>发现这个特别难</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>经过一番努力，通过自己的模型，分词等终于拿到数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -550,43 +289,32 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处理json数据并整理gitlab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通过看视频，写代码学习pytorch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待续</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过看视频，写代码学习pytorch</t>
   </si>
   <si>
     <t>还没学完</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -595,92 +323,303 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>简单了解神经网络</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>将模型部署到服务器上，修改model路径</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>接口出现问题，重新修改服务器上的model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>看pytorch官方文档了解基础</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未看完</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>在B站上找资源学习pytorch</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基础知识还没了解完，太多了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>学习numpy和pandas，了解了基础</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>小组开会总结工作，并安排任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开会，各个小组展示了各自的进度，老师做下一步指示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>了解CNN基础</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>但是并不是很了解</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>继续学习CNN,RNN神经网络</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
+  <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>解决前端往后端返回有问题</t>
+  </si>
+  <si>
+    <t>完善整个服务</t>
+  </si>
+  <si>
+    <t>最终能粗略实现语义角色标注</t>
+  </si>
+  <si>
+    <t>开始学习pytorch</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
+  <si>
+    <t>开会，查看老师发的文档</t>
+  </si>
+  <si>
+    <t>开始接触CRF++，是一个能训练的工具</t>
+  </si>
+  <si>
+    <t>稍微有点了解</t>
+  </si>
+  <si>
+    <t>通过分词，开始去使用CRF++的训练功能</t>
+  </si>
+  <si>
+    <t>没完成，有点蒙</t>
+  </si>
+  <si>
+    <t>继续，对分词进行训练</t>
+  </si>
+  <si>
+    <t>大致完成</t>
+  </si>
+  <si>
+    <t>安装pytorch，解决命令行conda一直报错</t>
+  </si>
+  <si>
+    <t>查看去年学长代码</t>
+  </si>
+  <si>
+    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
+  </si>
+  <si>
+    <t>感觉有点复杂</t>
+  </si>
+  <si>
+    <t>开始修改别人代码</t>
+  </si>
+  <si>
+    <t>先用别人的模型尝试</t>
+  </si>
+  <si>
+    <t>先把数据写死，尝试语义角色标注</t>
+  </si>
+  <si>
+    <t>发现这个特别难</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,31 +649,161 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,8 +816,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -834,13 +1089,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,9 +1347,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,24 +1368,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,48 +1395,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1217,19 +1752,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -1238,7 +1773,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1252,22 +1787,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1278,11 +1813,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1292,9 +1827,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1304,9 +1839,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1316,8 +1851,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1330,8 +1865,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1342,8 +1877,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1354,11 +1889,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1368,9 +1903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1380,9 +1915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1392,11 +1927,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1406,9 +1941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1418,9 +1953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1430,8 +1965,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1444,8 +1979,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1456,8 +1991,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1468,8 +2003,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1482,8 +2017,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1494,8 +2029,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+    <row r="21" ht="42" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1506,8 +2041,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1520,8 +2055,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1532,8 +2067,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1544,11 +2079,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>43670</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1558,9 +2093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1570,9 +2105,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1582,11 +2117,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1596,9 +2131,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1608,9 +2143,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1620,11 +2155,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1634,9 +2169,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1646,9 +2181,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1658,11 +2193,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1672,9 +2207,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1684,9 +2219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" ht="42" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1696,11 +2231,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+    <row r="37" ht="42" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
         <v>43675</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1710,9 +2245,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" ht="42" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1722,9 +2257,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" ht="42" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1734,11 +2269,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
         <v>43676</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1748,9 +2283,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" ht="42" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1760,9 +2295,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" ht="42" customHeight="1" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1772,11 +2307,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+    <row r="43" ht="42" customHeight="1" spans="1:4">
+      <c r="A43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1787,9 +2322,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" ht="42" customHeight="1" spans="1:4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1799,9 +2334,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" ht="42" customHeight="1" spans="1:4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1811,11 +2346,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+    <row r="46" ht="42" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
         <v>43678</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1825,9 +2360,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" ht="42" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1837,9 +2372,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" ht="42" customHeight="1" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1849,317 +2384,317 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="16">
+    <row r="49" ht="42" customHeight="1" spans="1:4">
+      <c r="A49" s="19">
         <v>43679</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="B49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:4">
+      <c r="A50" s="22"/>
+      <c r="B50" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:4">
+      <c r="A51" s="23"/>
+      <c r="B51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:4">
+      <c r="A52" s="3">
         <v>43680</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>154</v>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="3" t="s">
-        <v>157</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-      <c r="B54" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:4">
+      <c r="A55" s="3">
         <v>43682</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>154</v>
+      <c r="B55" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
-      <c r="B57" s="3" t="s">
-        <v>160</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:4">
+      <c r="A58" s="3">
         <v>43683</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>154</v>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="12"/>
-      <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:4">
+      <c r="A61" s="3">
         <v>43684</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>154</v>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="3" t="s">
-        <v>157</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="3" t="s">
-        <v>160</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="42" customHeight="1" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="42" customHeight="1" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="42" customHeight="1" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="42" customHeight="1" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="42" customHeight="1" spans="1:4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="42" customHeight="1" spans="1:4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="42" customHeight="1" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="42" customHeight="1" spans="1:4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="42" customHeight="1" spans="1:4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="42" customHeight="1" spans="1:4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="42" customHeight="1" spans="1:4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="42" customHeight="1" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="42" customHeight="1" spans="1:4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="42" customHeight="1" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="42" customHeight="1" spans="1:4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="42" customHeight="1" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="42" customHeight="1" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="42" customHeight="1" spans="1:4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="42" customHeight="1" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="42" customHeight="1" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2167,15 +2702,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -2186,24 +2712,34 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -2211,7 +2747,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2225,113 +2761,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2341,35 +2877,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2379,9 +2915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2391,9 +2927,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2403,159 +2939,159 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="3">
         <v>43668</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="7">
         <v>43670</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
         <v>43671</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2565,35 +3101,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>43672</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2603,9 +3139,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2615,9 +3151,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2627,11 +3163,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>43673</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2641,9 +3177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2653,9 +3189,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2665,11 +3201,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
         <v>43675</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2679,21 +3215,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2703,8 +3239,312 @@
         <v>12</v>
       </c>
     </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -2715,22 +3555,31 @@
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -2739,7 +3588,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2753,114 +3602,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>75</v>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2869,510 +3718,510 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>43665</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
+      <c r="A16" s="3">
         <v>43666</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+    <row r="18" ht="42" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="7">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>43669</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
+      <c r="B22" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:4">
+      <c r="A28" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="14">
+        <v>43676</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
+      <c r="D40" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C41" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>43670</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
-        <v>43671</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
-        <v>43672</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
-        <v>43673</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
-        <v>43675</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
-        <v>43676</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
-      <c r="B41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
-      <c r="B42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
-        <v>43677</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
         <v>43678</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>75</v>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="3">
         <v>43679</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>75</v>
+      <c r="B49" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="3" t="s">
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3397,8 +4246,8 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DABF2-9F57-4E80-9936-48875FAAAD0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8345E2-809C-46FB-A291-E65F0D0E5854}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2955" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="176">
   <si>
     <t>日期</t>
   </si>
@@ -641,6 +641,38 @@
   </si>
   <si>
     <t>基础知识还没了解完，太多了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习numpy和pandas，了解了基础</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组开会总结工作，并安排任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会，各个小组展示了各自的进度，老师做下一步指示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解CNN基础</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是并不是很了解</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习CNN,RNN神经网络</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -848,6 +880,15 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,13 +898,7 @@
     <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,9 +917,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1741,7 +1773,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1756,7 +1788,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -1768,7 +1800,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1850,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13">
+      <c r="A49" s="16">
         <v>43679</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -1832,7 +1864,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="8" t="s">
         <v>149</v>
       </c>
@@ -1844,7 +1876,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="8" t="s">
         <v>151</v>
       </c>
@@ -1932,40 +1964,80 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="10">
+        <v>43683</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="10">
+        <v>43684</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
@@ -2094,7 +2166,12 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A55:A57"/>
@@ -2111,9 +2188,6 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,16 +2705,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3050,10 +3124,10 @@
       <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
@@ -3072,10 +3146,10 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
@@ -3108,13 +3182,13 @@
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="25">
+      <c r="A37" s="19">
         <v>43675</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3126,7 +3200,7 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3212,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3224,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25">
+      <c r="A40" s="19">
         <v>43676</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3164,7 +3238,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3250,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
@@ -3303,11 +3377,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3322,6 +3391,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22620" windowHeight="12090" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="175">
   <si>
     <t>日期</t>
   </si>
@@ -233,28 +233,6 @@
     <t>对crf进行语义角色标注陷入迷茫之中</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
     <t>通过向学长了解终于明白其中的流程并从学长那里得到语料库</t>
   </si>
   <si>
@@ -273,28 +251,6 @@
     <t>经过一番努力，通过自己的模型，分词等终于拿到数据</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
     <t>处理json数据并整理gitlab</t>
   </si>
   <si>
@@ -305,28 +261,6 @@
   </si>
   <si>
     <t>还没学完</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
   </si>
   <si>
     <t>简单了解神经网络</t>
@@ -607,6 +541,45 @@
   </si>
   <si>
     <t>发现这个特别难</t>
+  </si>
+  <si>
+    <t>在网上查pytorch的相关资料</t>
+  </si>
+  <si>
+    <t>学习pytorch</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>觉得学习这个之前得先学习Numpy和pandaa</t>
+  </si>
+  <si>
+    <t>看Numpy的视频</t>
+  </si>
+  <si>
+    <t>看《数学之美》文档</t>
+  </si>
+  <si>
+    <t>看了两章</t>
+  </si>
+  <si>
+    <t>有个概念</t>
+  </si>
+  <si>
+    <t>开会，展示各小组完成的</t>
+  </si>
+  <si>
+    <t>学习Numpy</t>
+  </si>
+  <si>
+    <t>晚上看</t>
+  </si>
+  <si>
+    <t>学习pandas</t>
+  </si>
+  <si>
+    <t>下午继续</t>
   </si>
 </sst>
 </file>
@@ -614,12 +587,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,11 +617,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,6 +631,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -666,44 +639,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -727,7 +663,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,18 +684,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,9 +723,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +755,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,7 +783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,19 +825,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,61 +897,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,49 +933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,17 +1057,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1123,6 +1081,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1138,26 +1105,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,11 +1131,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,10 +1160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,137 +1172,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,6 +1351,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,21 +1364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,19 +1712,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D63"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -2308,7 +2264,7 @@
       </c>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:4">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2323,24 +2279,24 @@
       </c>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="17"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:4">
+      <c r="A45" s="20"/>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" ht="42" customHeight="1" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2354,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -2363,10 +2319,10 @@
     <row r="47" ht="42" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -2378,48 +2334,48 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:4">
-      <c r="A49" s="19">
+      <c r="A49" s="3">
         <v>43679</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" ht="42" customHeight="1" spans="1:4">
-      <c r="A50" s="22"/>
-      <c r="B50" s="20" t="s">
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="D51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" ht="42" customHeight="1" spans="1:4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:4">
@@ -2430,19 +2386,19 @@
         <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -2454,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -2468,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -2477,13 +2433,13 @@
     <row r="56" ht="42" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:4">
@@ -2492,10 +2448,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:4">
@@ -2506,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
@@ -2515,10 +2471,10 @@
     <row r="59" ht="42" customHeight="1" spans="1:4">
       <c r="A59" s="6"/>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -2530,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -2544,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -2553,13 +2509,13 @@
     <row r="62" ht="42" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:4">
@@ -2568,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -2731,20 +2687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D63"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2769,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2781,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -2795,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -2807,7 +2763,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -2819,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -2833,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2845,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -2857,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -2883,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -2895,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -2944,10 +2900,10 @@
         <v>43666</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -2959,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
@@ -2978,10 +2934,10 @@
         <v>43668</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -2993,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3005,10 +2961,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
@@ -3016,10 +2972,10 @@
         <v>43669</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3031,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -3043,10 +2999,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
@@ -3054,10 +3010,10 @@
         <v>43670</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3069,10 +3025,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -3081,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
@@ -3107,10 +3063,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
@@ -3122,7 +3078,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
@@ -3221,10 +3177,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
@@ -3256,7 +3212,7 @@
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>54</v>
@@ -3294,10 +3250,10 @@
     <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -3309,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -3323,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -3332,10 +3288,10 @@
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -3347,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
@@ -3361,7 +3317,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -3370,10 +3326,10 @@
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -3385,10 +3341,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
@@ -3399,19 +3355,19 @@
         <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -3423,7 +3379,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -3437,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -3446,13 +3402,13 @@
     <row r="56" customHeight="1" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
@@ -3461,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
@@ -3475,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
@@ -3484,10 +3440,10 @@
     <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="6"/>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -3499,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -3513,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -3522,13 +3478,13 @@
     <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
@@ -3537,7 +3493,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -3571,20 +3527,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3610,7 +3566,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -3622,7 +3578,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -3633,10 +3589,10 @@
         <v>43662</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -3648,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -3660,10 +3616,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -3671,10 +3627,10 @@
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -3686,10 +3642,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
@@ -3698,7 +3654,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -3709,7 +3665,7 @@
         <v>43664</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -3724,10 +3680,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
@@ -3736,10 +3692,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
@@ -3747,13 +3703,13 @@
         <v>43665</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
@@ -3762,10 +3718,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
@@ -3774,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -3785,10 +3741,10 @@
         <v>43666</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -3800,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -3819,10 +3775,10 @@
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -3834,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -3846,10 +3802,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
@@ -3857,13 +3813,13 @@
         <v>43669</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
@@ -3872,10 +3828,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
@@ -3884,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
@@ -3895,10 +3851,10 @@
         <v>43670</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -3910,10 +3866,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
@@ -3922,10 +3878,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
@@ -3933,13 +3889,13 @@
         <v>43671</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
@@ -3948,10 +3904,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
@@ -3960,10 +3916,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
@@ -3971,10 +3927,10 @@
         <v>43672</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -3984,10 +3940,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
@@ -3996,7 +3952,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -4005,10 +3961,10 @@
         <v>43673</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -4020,10 +3976,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -4032,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -4041,10 +3997,10 @@
         <v>43675</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" s="15"/>
     </row>
@@ -4054,10 +4010,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
@@ -4066,10 +4022,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
@@ -4077,13 +4033,13 @@
         <v>43676</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
@@ -4092,10 +4048,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
@@ -4104,7 +4060,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>6</v>
@@ -4115,10 +4071,10 @@
         <v>43677</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -4130,10 +4086,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
@@ -4142,10 +4098,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
@@ -4153,10 +4109,10 @@
         <v>43678</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
@@ -4168,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -4180,7 +4136,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -4191,10 +4147,10 @@
         <v>43679</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
@@ -4206,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -4218,14 +4174,230 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="3">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:1">
+      <c r="A73" s="3">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:1">
+      <c r="A75" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -4245,6 +4417,14 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655E1FD-516C-40B2-B189-F891546E6FC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5520F-4888-47D1-90FB-3BAEBAF8F9D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2955" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2010" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="189">
   <si>
     <t>日期</t>
   </si>
@@ -644,12 +644,46 @@
     <t>刚开始看</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习深度学习框架</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单学习回归问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +727,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -834,13 +874,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +905,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,24 +926,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1235,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D66"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,7 +1262,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1236,7 +1276,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1288,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1262,7 +1302,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1314,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1326,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1300,7 +1340,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1352,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1364,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1338,7 +1378,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1390,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1402,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1376,7 +1416,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1428,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1440,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>43666</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1414,7 +1454,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1466,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1478,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>43668</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1452,7 +1492,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1504,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1516,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>43669</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1490,7 +1530,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1542,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1554,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1528,7 +1568,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1580,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1592,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1566,7 +1606,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1618,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1630,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="12">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1604,7 +1644,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1656,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1668,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="12">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1642,7 +1682,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1694,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1706,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="12">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1680,7 +1720,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1692,7 +1732,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1744,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+      <c r="A40" s="12">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1718,7 +1758,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1770,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1782,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1757,7 +1797,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1809,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1781,7 +1821,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="12">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1795,7 +1835,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
@@ -1807,7 +1847,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1819,7 +1859,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>43679</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1833,7 +1873,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1885,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1897,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="A52" s="12">
         <v>43680</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1871,7 +1911,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1923,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1935,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+      <c r="A55" s="12">
         <v>43682</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1909,7 +1949,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1961,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1973,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+      <c r="A58" s="12">
         <v>43683</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1947,7 +1987,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1999,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2011,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+      <c r="A61" s="12">
         <v>43684</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1985,7 +2025,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +2037,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -2009,57 +2049,71 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23">
+      <c r="A64" s="15">
         <v>43685</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="26"/>
-      <c r="B65" s="24" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="24" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="A67" s="12">
+        <v>43686</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2155,7 +2209,23 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A46:A48"/>
@@ -2163,21 +2233,6 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2280,7 +2335,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>43663</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2294,7 +2349,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2361,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2373,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2332,7 +2387,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2344,7 +2399,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2411,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2370,7 +2425,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2382,7 +2437,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2449,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2408,7 +2463,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2475,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2483,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>43668</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2442,7 +2497,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2509,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2466,7 +2521,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2480,7 +2535,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2547,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2597,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2556,7 +2611,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
@@ -2568,7 +2623,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2635,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="12">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2594,7 +2649,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2661,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2618,7 +2673,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="12">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2632,7 +2687,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
@@ -2644,7 +2699,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2711,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="12">
         <v>43675</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2670,7 +2725,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2737,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2749,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+      <c r="A40" s="12">
         <v>43676</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2708,7 +2763,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2775,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2732,7 +2787,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+      <c r="A43" s="12">
         <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2746,7 +2801,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2813,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2825,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="12">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2784,7 +2839,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
@@ -2796,7 +2851,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2808,7 +2863,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>43679</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2822,7 +2877,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2889,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
@@ -2846,7 +2901,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="A52" s="12">
         <v>43680</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2860,7 +2915,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
@@ -2872,7 +2927,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2939,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+      <c r="A55" s="12">
         <v>43682</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2898,7 +2953,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2965,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
@@ -2922,7 +2977,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+      <c r="A58" s="12">
         <v>43683</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2936,7 +2991,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
@@ -2948,7 +3003,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +3015,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+      <c r="A61" s="12">
         <v>43684</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2974,7 +3029,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +3041,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -2999,6 +3054,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -3007,16 +3072,6 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3056,7 +3111,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3070,7 +3125,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3137,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>43662</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3096,7 +3151,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3163,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3175,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3134,7 +3189,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3146,7 +3201,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3213,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>43664</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3172,7 +3227,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3184,7 +3239,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3251,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>43665</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3210,7 +3265,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3277,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3234,7 +3289,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>43666</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3248,7 +3303,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3315,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +3361,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>43669</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3320,7 +3375,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -3332,7 +3387,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3399,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>43670</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3358,7 +3413,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
@@ -3370,7 +3425,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3437,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>43671</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3396,7 +3451,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -3408,7 +3463,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3420,19 +3475,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="12">
         <v>43672</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
@@ -3444,17 +3499,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="12">
         <v>43673</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3468,7 +3523,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3480,17 +3535,17 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>43675</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3502,7 +3557,7 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3569,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3581,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>43676</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3540,7 +3595,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +3607,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3619,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+      <c r="A43" s="12">
         <v>43677</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3578,7 +3633,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3590,7 +3645,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3657,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="12">
         <v>43678</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3616,7 +3671,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +3683,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
@@ -3640,7 +3695,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>43679</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3654,7 +3709,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3721,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3733,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="A52" s="12">
         <v>43680</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3692,7 +3747,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3759,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
@@ -3712,7 +3767,7 @@
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+      <c r="A55" s="12">
         <v>43682</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3726,7 +3781,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="3" t="s">
         <v>4</v>
       </c>
@@ -3738,7 +3793,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3805,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+      <c r="A58" s="12">
         <v>43683</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -3764,7 +3819,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3776,7 +3831,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3843,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+      <c r="A61" s="12">
         <v>43684</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3802,7 +3857,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3814,7 +3869,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3881,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10">
+      <c r="A64" s="12">
         <v>43685</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3840,19 +3895,19 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
+      <c r="A67" s="12">
         <v>43686</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3860,54 +3915,41 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="11"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10">
+      <c r="A70" s="12">
         <v>43687</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10">
+      <c r="A73" s="12">
         <v>43686</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11"/>
+      <c r="A75" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3922,6 +3964,19 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5520F-4888-47D1-90FB-3BAEBAF8F9D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199255B-48F1-412F-A98E-DBC1371208D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2010" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="191">
   <si>
     <t>日期</t>
   </si>
@@ -676,6 +676,14 @@
   </si>
   <si>
     <t>简单学习回归问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习手写数字识别的例子，了解其流程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -889,15 +897,6 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,7 +906,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,6 +931,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,7 +1790,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1797,7 +1805,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1817,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2049,7 +2057,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="15">
+      <c r="A64" s="18">
         <v>43685</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -2063,7 +2071,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="10" t="s">
         <v>178</v>
       </c>
@@ -2075,7 +2083,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="17"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="10" t="s">
         <v>181</v>
       </c>
@@ -2119,19 +2127,27 @@
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="12">
+        <v>43687</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2209,7 +2225,15 @@
       <c r="D84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
@@ -2226,13 +2250,6 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3054,16 +3071,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -3072,6 +3079,16 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,10 +3498,10 @@
       <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
@@ -3503,10 +3520,10 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
@@ -3539,13 +3556,13 @@
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="27">
         <v>43675</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3557,7 +3574,7 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3586,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
@@ -3581,7 +3598,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21">
+      <c r="A40" s="27">
         <v>43676</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3595,7 +3612,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3607,7 +3624,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
@@ -3950,6 +3967,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -3964,19 +3994,6 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/张志毅小组日志整合表.xlsx
+++ b/doc/log/张志毅小组日志整合表.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5520F-4888-47D1-90FB-3BAEBAF8F9D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2010" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
     <sheet name="张新博" sheetId="2" r:id="rId2"/>
     <sheet name="张有胜" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="186">
   <si>
     <t>日期</t>
   </si>
@@ -315,299 +302,18 @@
     <t>继续学习CNN,RNN神经网络</t>
   </si>
   <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
-  </si>
-  <si>
-    <t>深入学习语义角色标注：</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及一些包的介绍</t>
-  </si>
-  <si>
-    <t>安装并配置Anaconda</t>
-  </si>
-  <si>
-    <t>学习《数学之美》</t>
-  </si>
-  <si>
-    <t>上午8：00-11:30</t>
-  </si>
-  <si>
-    <t>熟悉flask中的代码，</t>
-  </si>
-  <si>
-    <t>学习文档;了解Numpy</t>
-  </si>
-  <si>
-    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
-  </si>
-  <si>
-    <t>配置vue运行环境</t>
-  </si>
-  <si>
-    <t>学习vue基础知识</t>
-  </si>
-  <si>
-    <t>明天继续</t>
-  </si>
-  <si>
-    <t>深入学习vue</t>
-  </si>
-  <si>
-    <t>在电脑上安装mac操作系统</t>
-  </si>
-  <si>
-    <t>编写小组前端网页</t>
-  </si>
-  <si>
-    <t>调用ltp的接口</t>
-  </si>
-  <si>
-    <t>还需要学习一个好看的前端</t>
-  </si>
-  <si>
-    <t>查看elementUI</t>
-  </si>
-  <si>
-    <t>前后端数据交互</t>
-  </si>
-  <si>
-    <t>数据能互相传递</t>
-  </si>
-  <si>
-    <t>数据接收存在问题</t>
-  </si>
-  <si>
-    <t>对分词进行训练</t>
-  </si>
-  <si>
-    <t>基本完成</t>
-  </si>
-  <si>
-    <t>解决前端往后端返回有问题</t>
-  </si>
-  <si>
-    <t>完善整个服务</t>
-  </si>
-  <si>
-    <t>最终能粗略实现语义角色标注</t>
-  </si>
-  <si>
-    <t>开始学习pytorch</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
-  </si>
-  <si>
-    <t>安装并初步学习jieba</t>
-  </si>
-  <si>
-    <t>查看NLP文档</t>
-  </si>
-  <si>
-    <t>还行</t>
-  </si>
-  <si>
-    <t>初步学习python基础</t>
-  </si>
-  <si>
-    <t>未学完</t>
-  </si>
-  <si>
-    <t>学习python基础  2/3</t>
-  </si>
-  <si>
-    <t>查看文档</t>
-  </si>
-  <si>
-    <t>学习python基础</t>
-  </si>
-  <si>
-    <t>安装flask并学习</t>
-  </si>
-  <si>
-    <t>学习flask</t>
-  </si>
-  <si>
-    <t>整理笔记，学习flask</t>
-  </si>
-  <si>
-    <t>学习flask-WTF实现表单</t>
-  </si>
-  <si>
-    <t>了解自然语言处理的相关名词</t>
-  </si>
-  <si>
-    <t>开会，看文档</t>
-  </si>
-  <si>
-    <t>看文档，配置node</t>
-  </si>
-  <si>
-    <t>学习vue</t>
-  </si>
-  <si>
-    <t>没完成</t>
-  </si>
-  <si>
-    <t>有点难</t>
-  </si>
-  <si>
-    <t>配置ltp</t>
-  </si>
-  <si>
-    <t>未完成，明继续</t>
-  </si>
-  <si>
-    <t>查看element</t>
-  </si>
-  <si>
-    <t>查看文档和element</t>
-  </si>
-  <si>
-    <t>又看了点falsk和vue</t>
-  </si>
-  <si>
-    <t>学习文档;</t>
-  </si>
-  <si>
-    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
-  </si>
-  <si>
-    <t>寻找解决前后端交互的方法</t>
-  </si>
-  <si>
-    <t>没解决</t>
-  </si>
-  <si>
-    <t>总结：学习新东西，不能从头到尾全
-部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
-  </si>
-  <si>
-    <t>把调节接口的前端进行修改</t>
-  </si>
-  <si>
-    <t>学习小组完成服务的代码</t>
-  </si>
-  <si>
-    <t>能看懂的更多了，还需要查阅</t>
-  </si>
-  <si>
-    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
-  </si>
-  <si>
-    <t>开会，查看老师发的文档</t>
-  </si>
-  <si>
-    <t>开始接触CRF++，是一个能训练的工具</t>
-  </si>
-  <si>
-    <t>稍微有点了解</t>
-  </si>
-  <si>
-    <t>通过分词，开始去使用CRF++的训练功能</t>
-  </si>
-  <si>
-    <t>没完成，有点蒙</t>
-  </si>
-  <si>
-    <t>继续，对分词进行训练</t>
-  </si>
-  <si>
-    <t>大致完成</t>
-  </si>
-  <si>
-    <t>安装pytorch，解决命令行conda一直报错</t>
-  </si>
-  <si>
-    <t>查看去年学长代码</t>
-  </si>
-  <si>
-    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
-  </si>
-  <si>
-    <t>感觉有点复杂</t>
-  </si>
-  <si>
-    <t>开始修改别人代码</t>
-  </si>
-  <si>
-    <t>先用别人的模型尝试</t>
-  </si>
-  <si>
-    <t>先把数据写死，尝试语义角色标注</t>
-  </si>
-  <si>
-    <t>发现这个特别难</t>
-  </si>
-  <si>
-    <t>在网上查pytorch的相关资料</t>
-  </si>
-  <si>
-    <t>学习pytorch</t>
-  </si>
-  <si>
-    <t>。。。</t>
-  </si>
-  <si>
-    <t>觉得学习这个之前得先学习Numpy和pandaa</t>
-  </si>
-  <si>
-    <t>看Numpy的视频</t>
-  </si>
-  <si>
-    <t>看《数学之美》文档</t>
-  </si>
-  <si>
-    <t>看了两章</t>
-  </si>
-  <si>
-    <t>有个概念</t>
-  </si>
-  <si>
-    <t>开会，展示各小组完成的</t>
-  </si>
-  <si>
-    <t>学习Numpy</t>
-  </si>
-  <si>
-    <t>晚上看</t>
-  </si>
-  <si>
-    <t>学习pandas</t>
-  </si>
-  <si>
-    <t>下午继续</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>在pytorch官网学习那些小例子，发现对神经网络还是不理解</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -616,48 +322,37 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">去GitHub上找了一些关于pytorch nlp的，发现根本看不同             </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>里面的架构都不懂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>想看看Deep Learning那本书，看能不能从这本书上找到突破口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刚开始看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>学习深度学习框架</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -666,24 +361,313 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>简单学习回归问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>最邻近规则分类KNN算法</t>
+  </si>
+  <si>
+    <t>最邻近规则KNN分类应用</t>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
+    <t>熟悉flask中的代码，</t>
+  </si>
+  <si>
+    <t>学习文档;了解Numpy</t>
+  </si>
+  <si>
+    <t>学习哈工大ltp-cloud并尝试在电脑上运行</t>
+  </si>
+  <si>
+    <t>配置vue运行环境</t>
+  </si>
+  <si>
+    <t>学习vue基础知识</t>
+  </si>
+  <si>
+    <t>明天继续</t>
+  </si>
+  <si>
+    <t>深入学习vue</t>
+  </si>
+  <si>
+    <t>在电脑上安装mac操作系统</t>
+  </si>
+  <si>
+    <t>编写小组前端网页</t>
+  </si>
+  <si>
+    <t>调用ltp的接口</t>
+  </si>
+  <si>
+    <t>还需要学习一个好看的前端</t>
+  </si>
+  <si>
+    <t>查看elementUI</t>
+  </si>
+  <si>
+    <t>前后端数据交互</t>
+  </si>
+  <si>
+    <t>数据能互相传递</t>
+  </si>
+  <si>
+    <t>数据接收存在问题</t>
+  </si>
+  <si>
+    <t>对分词进行训练</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>解决前端往后端返回有问题</t>
+  </si>
+  <si>
+    <t>完善整个服务</t>
+  </si>
+  <si>
+    <t>最终能粗略实现语义角色标注</t>
+  </si>
+  <si>
+    <t>开始学习pytorch</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
+  </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习flask</t>
+  </si>
+  <si>
+    <t>整理笔记，学习flask</t>
+  </si>
+  <si>
+    <t>学习flask-WTF实现表单</t>
+  </si>
+  <si>
+    <t>了解自然语言处理的相关名词</t>
+  </si>
+  <si>
+    <t>开会，看文档</t>
+  </si>
+  <si>
+    <t>看文档，配置node</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>没完成</t>
+  </si>
+  <si>
+    <t>有点难</t>
+  </si>
+  <si>
+    <t>配置ltp</t>
+  </si>
+  <si>
+    <t>未完成，明继续</t>
+  </si>
+  <si>
+    <t>查看element</t>
+  </si>
+  <si>
+    <t>查看文档和element</t>
+  </si>
+  <si>
+    <t>又看了点falsk和vue</t>
+  </si>
+  <si>
+    <t>学习文档;</t>
+  </si>
+  <si>
+    <t>发现以前学的vue用到的不多，又在查看。发现原来的学习方法不行</t>
+  </si>
+  <si>
+    <t>寻找解决前后端交互的方法</t>
+  </si>
+  <si>
+    <t>没解决</t>
+  </si>
+  <si>
+    <t>总结：学习新东西，不能从头到尾全
+部都看，现有需要，再去学习新东西的一部分,要学会查看代码</t>
+  </si>
+  <si>
+    <t>把调节接口的前端进行修改</t>
+  </si>
+  <si>
+    <t>学习小组完成服务的代码</t>
+  </si>
+  <si>
+    <t>能看懂的更多了，还需要查阅</t>
+  </si>
+  <si>
+    <t>总结：发现flask可以进行前后端交互,可以把前端的字符串转化为json串，把json串换为字符串,vue中ajax进行数据交互</t>
+  </si>
+  <si>
+    <t>开会，查看老师发的文档</t>
+  </si>
+  <si>
+    <t>开始接触CRF++，是一个能训练的工具</t>
+  </si>
+  <si>
+    <t>稍微有点了解</t>
+  </si>
+  <si>
+    <t>通过分词，开始去使用CRF++的训练功能</t>
+  </si>
+  <si>
+    <t>没完成，有点蒙</t>
+  </si>
+  <si>
+    <t>继续，对分词进行训练</t>
+  </si>
+  <si>
+    <t>大致完成</t>
+  </si>
+  <si>
+    <t>安装pytorch，解决命令行conda一直报错</t>
+  </si>
+  <si>
+    <t>查看去年学长代码</t>
+  </si>
+  <si>
+    <t>查看《基于最大熵原则的汉语语义角色分类》_丁伟伟</t>
+  </si>
+  <si>
+    <t>感觉有点复杂</t>
+  </si>
+  <si>
+    <t>开始修改别人代码</t>
+  </si>
+  <si>
+    <t>先用别人的模型尝试</t>
+  </si>
+  <si>
+    <t>先把数据写死，尝试语义角色标注</t>
+  </si>
+  <si>
+    <t>发现这个特别难</t>
+  </si>
+  <si>
+    <t>在网上查pytorch的相关资料</t>
+  </si>
+  <si>
+    <t>学习pytorch</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>觉得学习这个之前得先学习Numpy和pandaa</t>
+  </si>
+  <si>
+    <t>看Numpy的视频</t>
+  </si>
+  <si>
+    <t>看《数学之美》文档</t>
+  </si>
+  <si>
+    <t>看了两章</t>
+  </si>
+  <si>
+    <t>有个概念</t>
+  </si>
+  <si>
+    <t>开会，展示各小组完成的</t>
+  </si>
+  <si>
+    <t>学习Numpy</t>
+  </si>
+  <si>
+    <t>晚上看</t>
+  </si>
+  <si>
+    <t>学习pandas</t>
+  </si>
+  <si>
+    <t>下午继续</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,31 +697,161 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,8 +864,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -837,13 +1137,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4